--- a/BAT.api/AppUploads/UserData/TestData.xlsx
+++ b/BAT.api/AppUploads/UserData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ENVY 15 x360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C2E9A-317C-493B-8410-07A8D2C517A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A7BB3-1D88-4A4A-96D2-1522AE5121C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2175" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random generator" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="415">
   <si>
     <t>Email</t>
   </si>
@@ -37,9 +37,6 @@
     <t>c.bennett@randatmail.com</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t>Ryan</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>s.tucker@randatmail.com</t>
   </si>
   <si>
-    <t>Fashion Designer</t>
-  </si>
-  <si>
     <t>Aldus</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>a.casey@randatmail.com</t>
   </si>
   <si>
-    <t>Chef</t>
-  </si>
-  <si>
     <t>Melanie</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>r.hawkins@randatmail.com</t>
   </si>
   <si>
-    <t>Chemist</t>
-  </si>
-  <si>
     <t>Henry</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>h.hamilton@randatmail.com</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -121,18 +106,12 @@
     <t>j.fowler@randatmail.com</t>
   </si>
   <si>
-    <t>Pharmacist</t>
-  </si>
-  <si>
     <t>Carlos</t>
   </si>
   <si>
     <t>c.baker@randatmail.com</t>
   </si>
   <si>
-    <t>Fine Artist</t>
-  </si>
-  <si>
     <t>Joyce</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t>j.elliott@randatmail.com</t>
   </si>
   <si>
-    <t>Astronomer</t>
-  </si>
-  <si>
     <t>Aiden</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t>a.morgan@randatmail.com</t>
   </si>
   <si>
-    <t>Interpreter</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -166,18 +139,12 @@
     <t>d.myers@randatmail.com</t>
   </si>
   <si>
-    <t>Photographer</t>
-  </si>
-  <si>
     <t>Edward</t>
   </si>
   <si>
     <t>e.tucker@randatmail.com</t>
   </si>
   <si>
-    <t>Archeologist</t>
-  </si>
-  <si>
     <t>Dainton</t>
   </si>
   <si>
@@ -187,9 +154,6 @@
     <t>d.barrett@randatmail.com</t>
   </si>
   <si>
-    <t>Medic</t>
-  </si>
-  <si>
     <t>Antony</t>
   </si>
   <si>
@@ -199,9 +163,6 @@
     <t>a.smith@randatmail.com</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -211,9 +172,6 @@
     <t>m.lloyd@randatmail.com</t>
   </si>
   <si>
-    <t>Singer</t>
-  </si>
-  <si>
     <t>Gianna</t>
   </si>
   <si>
@@ -223,18 +181,12 @@
     <t>g.davis@randatmail.com</t>
   </si>
   <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
     <t>Albert</t>
   </si>
   <si>
     <t>a.hawkins@randatmail.com</t>
   </si>
   <si>
-    <t>Teacher</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -244,9 +196,6 @@
     <t>t.armstrong@randatmail.com</t>
   </si>
   <si>
-    <t>Scientist</t>
-  </si>
-  <si>
     <t>Jacob</t>
   </si>
   <si>
@@ -262,9 +211,6 @@
     <t>b.fowler@randatmail.com</t>
   </si>
   <si>
-    <t>Producer</t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
@@ -274,15 +220,9 @@
     <t>d.foster@randatmail.com</t>
   </si>
   <si>
-    <t>Journalist</t>
-  </si>
-  <si>
     <t>Amber</t>
   </si>
   <si>
-    <t>Biochemist</t>
-  </si>
-  <si>
     <t>Carina</t>
   </si>
   <si>
@@ -301,9 +241,6 @@
     <t>a.crawford@randatmail.com</t>
   </si>
   <si>
-    <t>Economist</t>
-  </si>
-  <si>
     <t>Myra</t>
   </si>
   <si>
@@ -328,9 +265,6 @@
     <t>a.warren@randatmail.com</t>
   </si>
   <si>
-    <t>Firefighter</t>
-  </si>
-  <si>
     <t>Ted</t>
   </si>
   <si>
@@ -340,9 +274,6 @@
     <t>t.higgins@randatmail.com</t>
   </si>
   <si>
-    <t>Insurer</t>
-  </si>
-  <si>
     <t>Eddy</t>
   </si>
   <si>
@@ -355,9 +286,6 @@
     <t>a.perkins@randatmail.com</t>
   </si>
   <si>
-    <t>Programmer</t>
-  </si>
-  <si>
     <t>Freddie</t>
   </si>
   <si>
@@ -367,9 +295,6 @@
     <t>f.phillips@randatmail.com</t>
   </si>
   <si>
-    <t>Accountant</t>
-  </si>
-  <si>
     <t>Maddie</t>
   </si>
   <si>
@@ -379,9 +304,6 @@
     <t>m.walker@randatmail.com</t>
   </si>
   <si>
-    <t>Agronomist</t>
-  </si>
-  <si>
     <t>Byron</t>
   </si>
   <si>
@@ -421,27 +343,18 @@
     <t>v.myers@randatmail.com</t>
   </si>
   <si>
-    <t>Driver</t>
-  </si>
-  <si>
     <t>Alisa</t>
   </si>
   <si>
     <t>a.russell@randatmail.com</t>
   </si>
   <si>
-    <t>Veterinarian</t>
-  </si>
-  <si>
     <t>Tyler</t>
   </si>
   <si>
     <t>t.barrett@randatmail.com</t>
   </si>
   <si>
-    <t>Meteorologist</t>
-  </si>
-  <si>
     <t>Frederick</t>
   </si>
   <si>
@@ -451,9 +364,6 @@
     <t>a.bennett@randatmail.com</t>
   </si>
   <si>
-    <t>Aeroplane Pilot</t>
-  </si>
-  <si>
     <t>Haris</t>
   </si>
   <si>
@@ -463,9 +373,6 @@
     <t>h.kelly@randatmail.com</t>
   </si>
   <si>
-    <t>Physicist</t>
-  </si>
-  <si>
     <t>Alford</t>
   </si>
   <si>
@@ -487,18 +394,12 @@
     <t>l.perkins@randatmail.com</t>
   </si>
   <si>
-    <t>Mechanic</t>
-  </si>
-  <si>
     <t>Eleanor</t>
   </si>
   <si>
     <t>e.phillips@randatmail.com</t>
   </si>
   <si>
-    <t>Historian</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -529,9 +430,6 @@
     <t>a.baker@randatmail.com</t>
   </si>
   <si>
-    <t>Architect</t>
-  </si>
-  <si>
     <t>Darcy</t>
   </si>
   <si>
@@ -583,9 +481,6 @@
     <t>j.cameron@randatmail.com</t>
   </si>
   <si>
-    <t>Lecturer</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -607,9 +502,6 @@
     <t>a.armstrong@randatmail.com</t>
   </si>
   <si>
-    <t>Lawer</t>
-  </si>
-  <si>
     <t>Bruce</t>
   </si>
   <si>
@@ -652,9 +544,6 @@
     <t>l.nelson@randatmail.com</t>
   </si>
   <si>
-    <t>Florist</t>
-  </si>
-  <si>
     <t>Sofia</t>
   </si>
   <si>
@@ -673,18 +562,12 @@
     <t>k.harper@randatmail.com</t>
   </si>
   <si>
-    <t>Jeweller</t>
-  </si>
-  <si>
     <t>Gray</t>
   </si>
   <si>
     <t>a.gray@randatmail.com</t>
   </si>
   <si>
-    <t>Actor</t>
-  </si>
-  <si>
     <t>Chester</t>
   </si>
   <si>
@@ -700,27 +583,18 @@
     <t>m.riley@randatmail.com</t>
   </si>
   <si>
-    <t>Police Officer</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
     <t>l.west@randatmail.com</t>
   </si>
   <si>
-    <t>Composer</t>
-  </si>
-  <si>
     <t>Edwards</t>
   </si>
   <si>
     <t>d.edwards@randatmail.com</t>
   </si>
   <si>
-    <t>Geologist</t>
-  </si>
-  <si>
     <t>e.foster@randatmail.com</t>
   </si>
   <si>
@@ -754,9 +628,6 @@
     <t>l.mason@randatmail.com</t>
   </si>
   <si>
-    <t>Mathematician</t>
-  </si>
-  <si>
     <t>Preston</t>
   </si>
   <si>
@@ -787,9 +658,6 @@
     <t>j.stevens@randatmail.com</t>
   </si>
   <si>
-    <t>Dancer</t>
-  </si>
-  <si>
     <t>Penelope</t>
   </si>
   <si>
@@ -880,9 +748,6 @@
     <t>r.rogers@randatmail.com</t>
   </si>
   <si>
-    <t>Interior Designer</t>
-  </si>
-  <si>
     <t>Julian</t>
   </si>
   <si>
@@ -901,18 +766,12 @@
     <t>m.carroll@randatmail.com</t>
   </si>
   <si>
-    <t>Electrician</t>
-  </si>
-  <si>
     <t>Savana</t>
   </si>
   <si>
     <t>s.carroll@randatmail.com</t>
   </si>
   <si>
-    <t>Graphic Designer</t>
-  </si>
-  <si>
     <t>Naomi</t>
   </si>
   <si>
@@ -946,9 +805,6 @@
     <t>e.moore@randatmail.com</t>
   </si>
   <si>
-    <t>Botanist</t>
-  </si>
-  <si>
     <t>a.myers@randatmail.com</t>
   </si>
   <si>
@@ -1021,9 +877,6 @@
     <t>d.sullivan@randatmail.com</t>
   </si>
   <si>
-    <t>Hairdresser</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -1216,9 +1069,6 @@
     <t>Sarah</t>
   </si>
   <si>
-    <t>Social Worker</t>
-  </si>
-  <si>
     <t>Alfred</t>
   </si>
   <si>
@@ -1366,9 +1216,6 @@
     <t>a.mitchell@randatmail.com</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>l.lloyd@randatmail.com</t>
   </si>
   <si>
@@ -1412,6 +1259,12 @@
   </si>
   <si>
     <t>08167828256</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>{"firstName": "string","lastName": "string", "secretAnswer": "string","password": "string"}</t>
   </si>
 </sst>
 </file>
@@ -1762,37 +1615,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1815,2652 +1669,2652 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
-        <v>226</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>229</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="G82" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D92" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="G93" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="G94" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G95" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="G99" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="G102" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="G103" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="G104" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D108" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="G108" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="G109" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="G110" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="G112" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="G115" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="G116" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,1931 +4322,1931 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D118" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E118" t="s">
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="G118" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="G119" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="G120" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="G122" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E125" t="s">
         <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E126" t="s">
         <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="G128" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G130" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E131" t="s">
         <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="B132" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E133" t="s">
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" t="s">
         <v>302</v>
       </c>
-      <c r="B134" t="s">
-        <v>351</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E134" t="s">
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="G134" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="G135" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G136" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="B137" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G137" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="G138" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D139" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E139" t="s">
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="G139" t="s">
-        <v>226</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E140" t="s">
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="G140" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D141" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E141" t="s">
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="G141" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E142" t="s">
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="G142" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D143" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E143" t="s">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="G143" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E144" t="s">
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="G144" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="G145" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="G146" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="G147" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="G148" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F149" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>94</v>
+      </c>
+      <c r="B150" t="s">
         <v>120</v>
       </c>
-      <c r="B150" t="s">
-        <v>151</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
       </c>
       <c r="F150" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="G150" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E151" t="s">
         <v>3</v>
       </c>
       <c r="F151" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="G151" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E152" t="s">
         <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="G152" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D153" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E153" t="s">
         <v>3</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="B154" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E154" t="s">
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="G154" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="B155" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="G155" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G156" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G157" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B158" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E158" t="s">
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="G158" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B159" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D159" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E159" t="s">
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="G160" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F161" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="G161" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B162" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E162" t="s">
         <v>3</v>
       </c>
       <c r="F162" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G162" t="s">
-        <v>229</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B163" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E163" t="s">
         <v>3</v>
       </c>
       <c r="F163" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="G163" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="G164" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F165" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="G165" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E166" t="s">
         <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="G166" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B167" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D167" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E167" t="s">
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="G167" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="G168" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F169" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="G169" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="B170" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F171" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="G171" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B172" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E172" t="s">
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B173" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E173" t="s">
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G173" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E174" t="s">
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="G174" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E175" t="s">
         <v>3</v>
       </c>
       <c r="F175" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="G175" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E176" t="s">
         <v>3</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="G176" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B177" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F177" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="G177" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B178" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F178" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="G178" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="G179" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E180" t="s">
         <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="G180" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E181" t="s">
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B182" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D182" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E182" t="s">
         <v>3</v>
       </c>
       <c r="F182" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D183" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E183" t="s">
         <v>3</v>
       </c>
       <c r="F183" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="G183" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D184" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E184" t="s">
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="G184" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D185" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E185" t="s">
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D186" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E186" t="s">
         <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="G186" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B187" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D187" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E187" t="s">
         <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="G187" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F188" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="G188" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="B189" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="G189" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F190" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="G190" t="s">
-        <v>229</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B191" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D191" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E191" t="s">
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G191" t="s">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B192" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E192" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="G192" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="B193" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E193" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F193" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="G193" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="B194" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E194" t="s">
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="G194" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B195" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D195" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E195" t="s">
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="G195" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F197" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="G197" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F198" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="G198" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E199" t="s">
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="G199" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D200" t="s">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="E200" t="s">
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="G200" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="E201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F201" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="G201" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/BAT.api/AppUploads/UserData/TestData.xlsx
+++ b/BAT.api/AppUploads/UserData/TestData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ENVY 15 x360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A7BB3-1D88-4A4A-96D2-1522AE5121C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516712C2-7570-4A2A-8B0F-B22878A768DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="2265" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Random generator" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="413">
   <si>
     <t>Email</t>
   </si>
@@ -1255,16 +1255,10 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>08167828256</t>
   </si>
   <si>
     <t>Lagos</t>
-  </si>
-  <si>
-    <t>{"firstName": "string","lastName": "string", "secretAnswer": "string","password": "string"}</t>
   </si>
 </sst>
 </file>
@@ -1613,20 +1607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -1645,11 +1638,8 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1657,10 +1647,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1668,11 +1658,8 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1680,10 +1667,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1691,11 +1678,8 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1703,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1714,11 +1698,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1726,10 +1707,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1737,11 +1718,8 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1749,10 +1727,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1760,11 +1738,8 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1772,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1783,11 +1758,8 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1795,10 +1767,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -1806,11 +1778,8 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1818,10 +1787,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -1829,11 +1798,8 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1841,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -1852,11 +1818,8 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1864,10 +1827,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1875,11 +1838,8 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1887,10 +1847,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1898,11 +1858,8 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1910,10 +1867,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -1921,11 +1878,8 @@
       <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1933,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -1944,11 +1898,8 @@
       <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1956,10 +1907,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -1967,11 +1918,8 @@
       <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1979,10 +1927,10 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1990,11 +1938,8 @@
       <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2002,10 +1947,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -2013,11 +1958,8 @@
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2025,10 +1967,10 @@
         <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -2036,11 +1978,8 @@
       <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2048,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -2059,11 +1998,8 @@
       <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2071,10 +2007,10 @@
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -2082,11 +2018,8 @@
       <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2094,10 +2027,10 @@
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -2105,11 +2038,8 @@
       <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2117,10 +2047,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -2128,11 +2058,8 @@
       <c r="F22" t="s">
         <v>62</v>
       </c>
-      <c r="G22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2140,10 +2067,10 @@
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -2151,11 +2078,8 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2163,10 +2087,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -2174,11 +2098,8 @@
       <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2186,10 +2107,10 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -2197,11 +2118,8 @@
       <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2209,10 +2127,10 @@
         <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -2220,11 +2138,8 @@
       <c r="F26" t="s">
         <v>72</v>
       </c>
-      <c r="G26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2232,10 +2147,10 @@
         <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -2243,11 +2158,8 @@
       <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="G27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2255,10 +2167,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -2266,11 +2178,8 @@
       <c r="F28" t="s">
         <v>77</v>
       </c>
-      <c r="G28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2278,10 +2187,10 @@
         <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -2289,11 +2198,8 @@
       <c r="F29" t="s">
         <v>80</v>
       </c>
-      <c r="G29" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2301,10 +2207,10 @@
         <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -2312,11 +2218,8 @@
       <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="G30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2324,10 +2227,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -2335,11 +2238,8 @@
       <c r="F31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2347,10 +2247,10 @@
         <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -2358,11 +2258,8 @@
       <c r="F32" t="s">
         <v>87</v>
       </c>
-      <c r="G32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2370,10 +2267,10 @@
         <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
@@ -2381,11 +2278,8 @@
       <c r="F33" t="s">
         <v>90</v>
       </c>
-      <c r="G33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2393,10 +2287,10 @@
         <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
@@ -2404,11 +2298,8 @@
       <c r="F34" t="s">
         <v>93</v>
       </c>
-      <c r="G34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2416,10 +2307,10 @@
         <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -2427,11 +2318,8 @@
       <c r="F35" t="s">
         <v>96</v>
       </c>
-      <c r="G35" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2439,10 +2327,10 @@
         <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -2450,11 +2338,8 @@
       <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="G36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2462,10 +2347,10 @@
         <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
@@ -2473,11 +2358,8 @@
       <c r="F37" t="s">
         <v>101</v>
       </c>
-      <c r="G37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2485,10 +2367,10 @@
         <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -2496,11 +2378,8 @@
       <c r="F38" t="s">
         <v>104</v>
       </c>
-      <c r="G38" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -2508,10 +2387,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
@@ -2519,11 +2398,8 @@
       <c r="F39" t="s">
         <v>106</v>
       </c>
-      <c r="G39" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -2531,10 +2407,10 @@
         <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -2542,11 +2418,8 @@
       <c r="F40" t="s">
         <v>108</v>
       </c>
-      <c r="G40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2554,10 +2427,10 @@
         <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -2565,11 +2438,8 @@
       <c r="F41" t="s">
         <v>110</v>
       </c>
-      <c r="G41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2577,10 +2447,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
@@ -2588,11 +2458,8 @@
       <c r="F42" t="s">
         <v>112</v>
       </c>
-      <c r="G42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2600,10 +2467,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
@@ -2611,11 +2478,8 @@
       <c r="F43" t="s">
         <v>113</v>
       </c>
-      <c r="G43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2623,10 +2487,10 @@
         <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -2634,11 +2498,8 @@
       <c r="F44" t="s">
         <v>116</v>
       </c>
-      <c r="G44" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -2646,10 +2507,10 @@
         <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -2657,11 +2518,8 @@
       <c r="F45" t="s">
         <v>119</v>
       </c>
-      <c r="G45" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2669,10 +2527,10 @@
         <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -2680,11 +2538,8 @@
       <c r="F46" t="s">
         <v>121</v>
       </c>
-      <c r="G46" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2692,10 +2547,10 @@
         <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -2703,11 +2558,8 @@
       <c r="F47" t="s">
         <v>123</v>
       </c>
-      <c r="G47" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2715,10 +2567,10 @@
         <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
@@ -2726,11 +2578,8 @@
       <c r="F48" t="s">
         <v>125</v>
       </c>
-      <c r="G48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2738,10 +2587,10 @@
         <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -2749,11 +2598,8 @@
       <c r="F49" t="s">
         <v>127</v>
       </c>
-      <c r="G49" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -2761,10 +2607,10 @@
         <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
@@ -2772,11 +2618,8 @@
       <c r="F50" t="s">
         <v>130</v>
       </c>
-      <c r="G50" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -2784,10 +2627,10 @@
         <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
@@ -2795,11 +2638,8 @@
       <c r="F51" t="s">
         <v>133</v>
       </c>
-      <c r="G51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -2807,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
@@ -2818,11 +2658,8 @@
       <c r="F52" t="s">
         <v>135</v>
       </c>
-      <c r="G52" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2830,10 +2667,10 @@
         <v>137</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
@@ -2841,11 +2678,8 @@
       <c r="F53" t="s">
         <v>138</v>
       </c>
-      <c r="G53" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2853,10 +2687,10 @@
         <v>139</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
@@ -2864,11 +2698,8 @@
       <c r="F54" t="s">
         <v>140</v>
       </c>
-      <c r="G54" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -2876,10 +2707,10 @@
         <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -2887,11 +2718,8 @@
       <c r="F55" t="s">
         <v>142</v>
       </c>
-      <c r="G55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2899,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
@@ -2910,11 +2738,8 @@
       <c r="F56" t="s">
         <v>144</v>
       </c>
-      <c r="G56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -2922,10 +2747,10 @@
         <v>146</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -2933,11 +2758,8 @@
       <c r="F57" t="s">
         <v>147</v>
       </c>
-      <c r="G57" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -2945,10 +2767,10 @@
         <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -2956,11 +2778,8 @@
       <c r="F58" t="s">
         <v>149</v>
       </c>
-      <c r="G58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -2968,10 +2787,10 @@
         <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
@@ -2979,11 +2798,8 @@
       <c r="F59" t="s">
         <v>152</v>
       </c>
-      <c r="G59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -2991,10 +2807,10 @@
         <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -3002,11 +2818,8 @@
       <c r="F60" t="s">
         <v>155</v>
       </c>
-      <c r="G60" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>156</v>
       </c>
@@ -3014,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
@@ -3025,11 +2838,8 @@
       <c r="F61" t="s">
         <v>157</v>
       </c>
-      <c r="G61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -3037,10 +2847,10 @@
         <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -3048,11 +2858,8 @@
       <c r="F62" t="s">
         <v>159</v>
       </c>
-      <c r="G62" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -3060,10 +2867,10 @@
         <v>161</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -3071,11 +2878,8 @@
       <c r="F63" t="s">
         <v>162</v>
       </c>
-      <c r="G63" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -3083,10 +2887,10 @@
         <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -3094,11 +2898,8 @@
       <c r="F64" t="s">
         <v>165</v>
       </c>
-      <c r="G64" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -3106,10 +2907,10 @@
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -3117,11 +2918,8 @@
       <c r="F65" t="s">
         <v>167</v>
       </c>
-      <c r="G65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
@@ -3129,10 +2927,10 @@
         <v>169</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
@@ -3140,11 +2938,8 @@
       <c r="F66" t="s">
         <v>170</v>
       </c>
-      <c r="G66" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -3152,10 +2947,10 @@
         <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
@@ -3163,11 +2958,8 @@
       <c r="F67" t="s">
         <v>173</v>
       </c>
-      <c r="G67" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -3175,10 +2967,10 @@
         <v>175</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
@@ -3186,11 +2978,8 @@
       <c r="F68" t="s">
         <v>176</v>
       </c>
-      <c r="G68" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>177</v>
       </c>
@@ -3198,10 +2987,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
@@ -3209,11 +2998,8 @@
       <c r="F69" t="s">
         <v>108</v>
       </c>
-      <c r="G69" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -3221,10 +3007,10 @@
         <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -3232,11 +3018,8 @@
       <c r="F70" t="s">
         <v>179</v>
       </c>
-      <c r="G70" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3244,10 +3027,10 @@
         <v>180</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -3255,11 +3038,8 @@
       <c r="F71" t="s">
         <v>181</v>
       </c>
-      <c r="G71" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -3267,10 +3047,10 @@
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -3278,11 +3058,8 @@
       <c r="F72" t="s">
         <v>184</v>
       </c>
-      <c r="G72" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -3290,10 +3067,10 @@
         <v>185</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -3301,11 +3078,8 @@
       <c r="F73" t="s">
         <v>186</v>
       </c>
-      <c r="G73" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3313,10 +3087,10 @@
         <v>187</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -3324,11 +3098,8 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="G74" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -3336,10 +3107,10 @@
         <v>189</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -3347,11 +3118,8 @@
       <c r="F75" t="s">
         <v>190</v>
       </c>
-      <c r="G75" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3359,10 +3127,10 @@
         <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
@@ -3370,11 +3138,8 @@
       <c r="F76" t="s">
         <v>191</v>
       </c>
-      <c r="G76" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -3382,10 +3147,10 @@
         <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -3393,11 +3158,8 @@
       <c r="F77" t="s">
         <v>192</v>
       </c>
-      <c r="G77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -3405,10 +3167,10 @@
         <v>194</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
@@ -3416,11 +3178,8 @@
       <c r="F78" t="s">
         <v>195</v>
       </c>
-      <c r="G78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -3428,10 +3187,10 @@
         <v>183</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -3439,11 +3198,8 @@
       <c r="F79" t="s">
         <v>196</v>
       </c>
-      <c r="G79" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>197</v>
       </c>
@@ -3451,10 +3207,10 @@
         <v>187</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E80" t="s">
         <v>17</v>
@@ -3462,11 +3218,8 @@
       <c r="F80" t="s">
         <v>198</v>
       </c>
-      <c r="G80" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>199</v>
       </c>
@@ -3474,10 +3227,10 @@
         <v>200</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -3485,11 +3238,8 @@
       <c r="F81" t="s">
         <v>201</v>
       </c>
-      <c r="G81" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -3497,10 +3247,10 @@
         <v>26</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -3508,11 +3258,8 @@
       <c r="F82" t="s">
         <v>203</v>
       </c>
-      <c r="G82" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -3520,10 +3267,10 @@
         <v>204</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
@@ -3531,11 +3278,8 @@
       <c r="F83" t="s">
         <v>205</v>
       </c>
-      <c r="G83" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>206</v>
       </c>
@@ -3543,10 +3287,10 @@
         <v>151</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -3554,11 +3298,8 @@
       <c r="F84" t="s">
         <v>207</v>
       </c>
-      <c r="G84" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>208</v>
       </c>
@@ -3566,10 +3307,10 @@
         <v>209</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
@@ -3577,11 +3318,8 @@
       <c r="F85" t="s">
         <v>210</v>
       </c>
-      <c r="G85" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -3589,10 +3327,10 @@
         <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -3600,11 +3338,8 @@
       <c r="F86" t="s">
         <v>211</v>
       </c>
-      <c r="G86" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>212</v>
       </c>
@@ -3612,10 +3347,10 @@
         <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
@@ -3623,11 +3358,8 @@
       <c r="F87" t="s">
         <v>213</v>
       </c>
-      <c r="G87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3635,10 +3367,10 @@
         <v>214</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
@@ -3646,11 +3378,8 @@
       <c r="F88" t="s">
         <v>215</v>
       </c>
-      <c r="G88" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -3658,10 +3387,10 @@
         <v>217</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
@@ -3669,11 +3398,8 @@
       <c r="F89" t="s">
         <v>218</v>
       </c>
-      <c r="G89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -3681,10 +3407,10 @@
         <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -3692,11 +3418,8 @@
       <c r="F90" t="s">
         <v>220</v>
       </c>
-      <c r="G90" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -3704,10 +3427,10 @@
         <v>221</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -3715,11 +3438,8 @@
       <c r="F91" t="s">
         <v>222</v>
       </c>
-      <c r="G91" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3727,10 +3447,10 @@
         <v>209</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
@@ -3738,11 +3458,8 @@
       <c r="F92" t="s">
         <v>224</v>
       </c>
-      <c r="G92" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -3750,10 +3467,10 @@
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
@@ -3761,11 +3478,8 @@
       <c r="F93" t="s">
         <v>226</v>
       </c>
-      <c r="G93" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -3773,10 +3487,10 @@
         <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
@@ -3784,11 +3498,8 @@
       <c r="F94" t="s">
         <v>229</v>
       </c>
-      <c r="G94" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -3796,10 +3507,10 @@
         <v>231</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -3807,11 +3518,8 @@
       <c r="F95" t="s">
         <v>232</v>
       </c>
-      <c r="G95" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -3819,10 +3527,10 @@
         <v>233</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
@@ -3830,11 +3538,8 @@
       <c r="F96" t="s">
         <v>234</v>
       </c>
-      <c r="G96" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>235</v>
       </c>
@@ -3842,10 +3547,10 @@
         <v>236</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -3853,11 +3558,8 @@
       <c r="F97" t="s">
         <v>237</v>
       </c>
-      <c r="G97" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -3865,10 +3567,10 @@
         <v>239</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
@@ -3876,11 +3578,8 @@
       <c r="F98" t="s">
         <v>240</v>
       </c>
-      <c r="G98" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>216</v>
       </c>
@@ -3888,10 +3587,10 @@
         <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -3899,11 +3598,8 @@
       <c r="F99" t="s">
         <v>241</v>
       </c>
-      <c r="G99" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>225</v>
       </c>
@@ -3911,10 +3607,10 @@
         <v>228</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
@@ -3922,11 +3618,8 @@
       <c r="F100" t="s">
         <v>229</v>
       </c>
-      <c r="G100" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -3934,10 +3627,10 @@
         <v>243</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -3945,11 +3638,8 @@
       <c r="F101" t="s">
         <v>244</v>
       </c>
-      <c r="G101" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>245</v>
       </c>
@@ -3957,10 +3647,10 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
@@ -3968,11 +3658,8 @@
       <c r="F102" t="s">
         <v>246</v>
       </c>
-      <c r="G102" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -3980,10 +3667,10 @@
         <v>169</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
@@ -3991,11 +3678,8 @@
       <c r="F103" t="s">
         <v>247</v>
       </c>
-      <c r="G103" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -4003,10 +3687,10 @@
         <v>169</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
@@ -4014,11 +3698,8 @@
       <c r="F104" t="s">
         <v>249</v>
       </c>
-      <c r="G104" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>145</v>
       </c>
@@ -4026,10 +3707,10 @@
         <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -4037,11 +3718,8 @@
       <c r="F105" t="s">
         <v>246</v>
       </c>
-      <c r="G105" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -4049,10 +3727,10 @@
         <v>251</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D106" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E106" t="s">
         <v>17</v>
@@ -4060,11 +3738,8 @@
       <c r="F106" t="s">
         <v>252</v>
       </c>
-      <c r="G106" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -4072,10 +3747,10 @@
         <v>253</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E107" t="s">
         <v>17</v>
@@ -4083,11 +3758,8 @@
       <c r="F107" t="s">
         <v>254</v>
       </c>
-      <c r="G107" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -4095,10 +3767,10 @@
         <v>256</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -4106,11 +3778,8 @@
       <c r="F108" t="s">
         <v>257</v>
       </c>
-      <c r="G108" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -4118,10 +3787,10 @@
         <v>259</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E109" t="s">
         <v>17</v>
@@ -4129,11 +3798,8 @@
       <c r="F109" t="s">
         <v>260</v>
       </c>
-      <c r="G109" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -4141,10 +3807,10 @@
         <v>37</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
@@ -4152,11 +3818,8 @@
       <c r="F110" t="s">
         <v>261</v>
       </c>
-      <c r="G110" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -4164,10 +3827,10 @@
         <v>263</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E111" t="s">
         <v>17</v>
@@ -4175,11 +3838,8 @@
       <c r="F111" t="s">
         <v>264</v>
       </c>
-      <c r="G111" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>199</v>
       </c>
@@ -4187,10 +3847,10 @@
         <v>265</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D112" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
@@ -4198,11 +3858,8 @@
       <c r="F112" t="s">
         <v>266</v>
       </c>
-      <c r="G112" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>267</v>
       </c>
@@ -4210,10 +3867,10 @@
         <v>268</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
@@ -4221,11 +3878,8 @@
       <c r="F113" t="s">
         <v>269</v>
       </c>
-      <c r="G113" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>63</v>
       </c>
@@ -4233,10 +3887,10 @@
         <v>270</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
@@ -4244,11 +3898,8 @@
       <c r="F114" t="s">
         <v>271</v>
       </c>
-      <c r="G114" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -4256,10 +3907,10 @@
         <v>272</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
@@ -4267,11 +3918,8 @@
       <c r="F115" t="s">
         <v>273</v>
       </c>
-      <c r="G115" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>158</v>
       </c>
@@ -4279,10 +3927,10 @@
         <v>256</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
@@ -4290,11 +3938,8 @@
       <c r="F116" t="s">
         <v>274</v>
       </c>
-      <c r="G116" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>275</v>
       </c>
@@ -4302,10 +3947,10 @@
         <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E117" t="s">
         <v>17</v>
@@ -4313,11 +3958,8 @@
       <c r="F117" t="s">
         <v>125</v>
       </c>
-      <c r="G117" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -4325,10 +3967,10 @@
         <v>270</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E118" t="s">
         <v>3</v>
@@ -4336,11 +3978,8 @@
       <c r="F118" t="s">
         <v>276</v>
       </c>
-      <c r="G118" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>277</v>
       </c>
@@ -4348,10 +3987,10 @@
         <v>200</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -4359,11 +3998,8 @@
       <c r="F119" t="s">
         <v>278</v>
       </c>
-      <c r="G119" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>279</v>
       </c>
@@ -4371,10 +4007,10 @@
         <v>280</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
@@ -4382,11 +4018,8 @@
       <c r="F120" t="s">
         <v>281</v>
       </c>
-      <c r="G120" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>282</v>
       </c>
@@ -4394,10 +4027,10 @@
         <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E121" t="s">
         <v>17</v>
@@ -4405,11 +4038,8 @@
       <c r="F121" t="s">
         <v>283</v>
       </c>
-      <c r="G121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>76</v>
       </c>
@@ -4417,10 +4047,10 @@
         <v>265</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
@@ -4428,11 +4058,8 @@
       <c r="F122" t="s">
         <v>284</v>
       </c>
-      <c r="G122" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>285</v>
       </c>
@@ -4440,10 +4067,10 @@
         <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D123" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4451,11 +4078,8 @@
       <c r="F123" t="s">
         <v>69</v>
       </c>
-      <c r="G123" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>286</v>
       </c>
@@ -4463,10 +4087,10 @@
         <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
@@ -4474,11 +4098,8 @@
       <c r="F124" t="s">
         <v>90</v>
       </c>
-      <c r="G124" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>287</v>
       </c>
@@ -4486,10 +4107,10 @@
         <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D125" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E125" t="s">
         <v>3</v>
@@ -4497,11 +4118,8 @@
       <c r="F125" t="s">
         <v>288</v>
       </c>
-      <c r="G125" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -4509,10 +4127,10 @@
         <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
         <v>3</v>
@@ -4520,11 +4138,8 @@
       <c r="F126" t="s">
         <v>289</v>
       </c>
-      <c r="G126" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -4532,10 +4147,10 @@
         <v>20</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -4543,11 +4158,8 @@
       <c r="F127" t="s">
         <v>290</v>
       </c>
-      <c r="G127" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>47</v>
       </c>
@@ -4555,10 +4167,10 @@
         <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
@@ -4566,11 +4178,8 @@
       <c r="F128" t="s">
         <v>291</v>
       </c>
-      <c r="G128" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -4578,10 +4187,10 @@
         <v>154</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D129" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
@@ -4589,11 +4198,8 @@
       <c r="F129" t="s">
         <v>292</v>
       </c>
-      <c r="G129" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>293</v>
       </c>
@@ -4601,10 +4207,10 @@
         <v>23</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
@@ -4612,11 +4218,8 @@
       <c r="F130" t="s">
         <v>294</v>
       </c>
-      <c r="G130" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -4624,10 +4227,10 @@
         <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E131" t="s">
         <v>3</v>
@@ -4635,11 +4238,8 @@
       <c r="F131" t="s">
         <v>295</v>
       </c>
-      <c r="G131" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -4647,10 +4247,10 @@
         <v>297</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E132" t="s">
         <v>17</v>
@@ -4658,11 +4258,8 @@
       <c r="F132" t="s">
         <v>298</v>
       </c>
-      <c r="G132" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>299</v>
       </c>
@@ -4670,10 +4267,10 @@
         <v>300</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E133" t="s">
         <v>3</v>
@@ -4681,11 +4278,8 @@
       <c r="F133" t="s">
         <v>301</v>
       </c>
-      <c r="G133" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>255</v>
       </c>
@@ -4693,10 +4287,10 @@
         <v>302</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E134" t="s">
         <v>3</v>
@@ -4704,11 +4298,8 @@
       <c r="F134" t="s">
         <v>303</v>
       </c>
-      <c r="G134" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>285</v>
       </c>
@@ -4716,10 +4307,10 @@
         <v>304</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E135" t="s">
         <v>17</v>
@@ -4727,11 +4318,8 @@
       <c r="F135" t="s">
         <v>305</v>
       </c>
-      <c r="G135" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>306</v>
       </c>
@@ -4739,10 +4327,10 @@
         <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D136" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E136" t="s">
         <v>17</v>
@@ -4750,11 +4338,8 @@
       <c r="F136" t="s">
         <v>307</v>
       </c>
-      <c r="G136" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -4762,10 +4347,10 @@
         <v>309</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E137" t="s">
         <v>17</v>
@@ -4773,11 +4358,8 @@
       <c r="F137" t="s">
         <v>310</v>
       </c>
-      <c r="G137" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>66</v>
       </c>
@@ -4785,10 +4367,10 @@
         <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
@@ -4796,11 +4378,8 @@
       <c r="F138" t="s">
         <v>311</v>
       </c>
-      <c r="G138" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -4808,10 +4387,10 @@
         <v>214</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D139" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E139" t="s">
         <v>3</v>
@@ -4819,11 +4398,8 @@
       <c r="F139" t="s">
         <v>312</v>
       </c>
-      <c r="G139" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>313</v>
       </c>
@@ -4831,10 +4407,10 @@
         <v>146</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E140" t="s">
         <v>3</v>
@@ -4842,11 +4418,8 @@
       <c r="F140" t="s">
         <v>314</v>
       </c>
-      <c r="G140" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>255</v>
       </c>
@@ -4854,10 +4427,10 @@
         <v>209</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E141" t="s">
         <v>3</v>
@@ -4865,11 +4438,8 @@
       <c r="F141" t="s">
         <v>315</v>
       </c>
-      <c r="G141" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -4877,10 +4447,10 @@
         <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E142" t="s">
         <v>3</v>
@@ -4888,11 +4458,8 @@
       <c r="F142" t="s">
         <v>316</v>
       </c>
-      <c r="G142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4900,10 +4467,10 @@
         <v>139</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E143" t="s">
         <v>3</v>
@@ -4911,11 +4478,8 @@
       <c r="F143" t="s">
         <v>317</v>
       </c>
-      <c r="G143" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -4923,10 +4487,10 @@
         <v>268</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E144" t="s">
         <v>3</v>
@@ -4934,11 +4498,8 @@
       <c r="F144" t="s">
         <v>318</v>
       </c>
-      <c r="G144" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -4946,10 +4507,10 @@
         <v>319</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E145" t="s">
         <v>17</v>
@@ -4957,11 +4518,8 @@
       <c r="F145" t="s">
         <v>320</v>
       </c>
-      <c r="G145" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -4969,10 +4527,10 @@
         <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E146" t="s">
         <v>17</v>
@@ -4980,11 +4538,8 @@
       <c r="F146" t="s">
         <v>321</v>
       </c>
-      <c r="G146" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>322</v>
       </c>
@@ -4992,10 +4547,10 @@
         <v>323</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D147" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -5003,11 +4558,8 @@
       <c r="F147" t="s">
         <v>324</v>
       </c>
-      <c r="G147" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>258</v>
       </c>
@@ -5015,10 +4567,10 @@
         <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D148" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E148" t="s">
         <v>17</v>
@@ -5026,11 +4578,8 @@
       <c r="F148" t="s">
         <v>325</v>
       </c>
-      <c r="G148" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>326</v>
       </c>
@@ -5038,10 +4587,10 @@
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E149" t="s">
         <v>17</v>
@@ -5049,11 +4598,8 @@
       <c r="F149" t="s">
         <v>327</v>
       </c>
-      <c r="G149" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -5061,10 +4607,10 @@
         <v>120</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
@@ -5072,11 +4618,8 @@
       <c r="F150" t="s">
         <v>328</v>
       </c>
-      <c r="G150" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>329</v>
       </c>
@@ -5084,10 +4627,10 @@
         <v>209</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E151" t="s">
         <v>3</v>
@@ -5095,11 +4638,8 @@
       <c r="F151" t="s">
         <v>330</v>
       </c>
-      <c r="G151" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>117</v>
       </c>
@@ -5107,10 +4647,10 @@
         <v>175</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E152" t="s">
         <v>3</v>
@@ -5118,11 +4658,8 @@
       <c r="F152" t="s">
         <v>331</v>
       </c>
-      <c r="G152" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -5130,10 +4667,10 @@
         <v>13</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E153" t="s">
         <v>3</v>
@@ -5141,11 +4678,8 @@
       <c r="F153" t="s">
         <v>14</v>
       </c>
-      <c r="G153" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -5153,10 +4687,10 @@
         <v>333</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E154" t="s">
         <v>3</v>
@@ -5164,11 +4698,8 @@
       <c r="F154" t="s">
         <v>334</v>
       </c>
-      <c r="G154" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -5176,10 +4707,10 @@
         <v>335</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E155" t="s">
         <v>17</v>
@@ -5187,11 +4718,8 @@
       <c r="F155" t="s">
         <v>336</v>
       </c>
-      <c r="G155" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>337</v>
       </c>
@@ -5199,10 +4727,10 @@
         <v>338</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E156" t="s">
         <v>17</v>
@@ -5210,11 +4738,8 @@
       <c r="F156" t="s">
         <v>339</v>
       </c>
-      <c r="G156" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>340</v>
       </c>
@@ -5222,10 +4747,10 @@
         <v>221</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
         <v>17</v>
@@ -5233,11 +4758,8 @@
       <c r="F157" t="s">
         <v>341</v>
       </c>
-      <c r="G157" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>342</v>
       </c>
@@ -5245,10 +4767,10 @@
         <v>343</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E158" t="s">
         <v>3</v>
@@ -5256,11 +4778,8 @@
       <c r="F158" t="s">
         <v>344</v>
       </c>
-      <c r="G158" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>100</v>
       </c>
@@ -5268,10 +4787,10 @@
         <v>185</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E159" t="s">
         <v>3</v>
@@ -5279,11 +4798,8 @@
       <c r="F159" t="s">
         <v>345</v>
       </c>
-      <c r="G159" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>346</v>
       </c>
@@ -5291,10 +4807,10 @@
         <v>259</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E160" t="s">
         <v>17</v>
@@ -5302,11 +4818,8 @@
       <c r="F160" t="s">
         <v>347</v>
       </c>
-      <c r="G160" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>348</v>
       </c>
@@ -5314,10 +4827,10 @@
         <v>139</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -5325,11 +4838,8 @@
       <c r="F161" t="s">
         <v>317</v>
       </c>
-      <c r="G161" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>349</v>
       </c>
@@ -5337,10 +4847,10 @@
         <v>323</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E162" t="s">
         <v>3</v>
@@ -5348,11 +4858,8 @@
       <c r="F162" t="s">
         <v>350</v>
       </c>
-      <c r="G162" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>134</v>
       </c>
@@ -5360,10 +4867,10 @@
         <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E163" t="s">
         <v>3</v>
@@ -5371,11 +4878,8 @@
       <c r="F163" t="s">
         <v>351</v>
       </c>
-      <c r="G163" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>352</v>
       </c>
@@ -5383,10 +4887,10 @@
         <v>154</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -5394,11 +4898,8 @@
       <c r="F164" t="s">
         <v>353</v>
       </c>
-      <c r="G164" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -5406,10 +4907,10 @@
         <v>259</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
@@ -5417,11 +4918,8 @@
       <c r="F165" t="s">
         <v>354</v>
       </c>
-      <c r="G165" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -5429,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D166" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E166" t="s">
         <v>3</v>
@@ -5440,11 +4938,8 @@
       <c r="F166" t="s">
         <v>356</v>
       </c>
-      <c r="G166" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -5452,10 +4947,10 @@
         <v>187</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D167" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E167" t="s">
         <v>3</v>
@@ -5463,11 +4958,8 @@
       <c r="F167" t="s">
         <v>358</v>
       </c>
-      <c r="G167" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>359</v>
       </c>
@@ -5475,10 +4967,10 @@
         <v>163</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D168" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -5486,11 +4978,8 @@
       <c r="F168" t="s">
         <v>360</v>
       </c>
-      <c r="G168" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -5498,10 +4987,10 @@
         <v>270</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E169" t="s">
         <v>17</v>
@@ -5509,11 +4998,8 @@
       <c r="F169" t="s">
         <v>361</v>
       </c>
-      <c r="G169" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>348</v>
       </c>
@@ -5521,10 +5007,10 @@
         <v>265</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E170" t="s">
         <v>17</v>
@@ -5532,11 +5018,8 @@
       <c r="F170" t="s">
         <v>362</v>
       </c>
-      <c r="G170" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>158</v>
       </c>
@@ -5544,10 +5027,10 @@
         <v>132</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D171" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E171" t="s">
         <v>17</v>
@@ -5555,11 +5038,8 @@
       <c r="F171" t="s">
         <v>363</v>
       </c>
-      <c r="G171" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>364</v>
       </c>
@@ -5567,10 +5047,10 @@
         <v>365</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D172" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E172" t="s">
         <v>3</v>
@@ -5578,11 +5058,8 @@
       <c r="F172" t="s">
         <v>366</v>
       </c>
-      <c r="G172" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>364</v>
       </c>
@@ -5590,10 +5067,10 @@
         <v>56</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E173" t="s">
         <v>3</v>
@@ -5601,11 +5078,8 @@
       <c r="F173" t="s">
         <v>57</v>
       </c>
-      <c r="G173" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -5613,10 +5087,10 @@
         <v>231</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E174" t="s">
         <v>3</v>
@@ -5624,11 +5098,8 @@
       <c r="F174" t="s">
         <v>367</v>
       </c>
-      <c r="G174" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>368</v>
       </c>
@@ -5636,10 +5107,10 @@
         <v>26</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E175" t="s">
         <v>3</v>
@@ -5647,11 +5118,8 @@
       <c r="F175" t="s">
         <v>369</v>
       </c>
-      <c r="G175" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>76</v>
       </c>
@@ -5659,10 +5127,10 @@
         <v>333</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E176" t="s">
         <v>3</v>
@@ -5670,11 +5138,8 @@
       <c r="F176" t="s">
         <v>370</v>
       </c>
-      <c r="G176" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>371</v>
       </c>
@@ -5682,10 +5147,10 @@
         <v>272</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D177" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E177" t="s">
         <v>17</v>
@@ -5693,11 +5158,8 @@
       <c r="F177" t="s">
         <v>273</v>
       </c>
-      <c r="G177" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -5705,10 +5167,10 @@
         <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D178" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E178" t="s">
         <v>17</v>
@@ -5716,11 +5178,8 @@
       <c r="F178" t="s">
         <v>373</v>
       </c>
-      <c r="G178" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -5728,10 +5187,10 @@
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D179" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E179" t="s">
         <v>17</v>
@@ -5739,11 +5198,8 @@
       <c r="F179" t="s">
         <v>374</v>
       </c>
-      <c r="G179" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -5751,10 +5207,10 @@
         <v>365</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E180" t="s">
         <v>3</v>
@@ -5762,11 +5218,8 @@
       <c r="F180" t="s">
         <v>375</v>
       </c>
-      <c r="G180" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>100</v>
       </c>
@@ -5774,10 +5227,10 @@
         <v>263</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E181" t="s">
         <v>3</v>
@@ -5785,11 +5238,8 @@
       <c r="F181" t="s">
         <v>376</v>
       </c>
-      <c r="G181" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>349</v>
       </c>
@@ -5797,10 +5247,10 @@
         <v>189</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D182" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E182" t="s">
         <v>3</v>
@@ -5808,11 +5258,8 @@
       <c r="F182" t="s">
         <v>377</v>
       </c>
-      <c r="G182" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -5820,10 +5267,10 @@
         <v>129</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D183" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E183" t="s">
         <v>3</v>
@@ -5831,11 +5278,8 @@
       <c r="F183" t="s">
         <v>378</v>
       </c>
-      <c r="G183" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>160</v>
       </c>
@@ -5843,10 +5287,10 @@
         <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E184" t="s">
         <v>3</v>
@@ -5854,11 +5298,8 @@
       <c r="F184" t="s">
         <v>379</v>
       </c>
-      <c r="G184" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -5866,10 +5307,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D185" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E185" t="s">
         <v>3</v>
@@ -5877,11 +5318,8 @@
       <c r="F185" t="s">
         <v>380</v>
       </c>
-      <c r="G185" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>381</v>
       </c>
@@ -5889,10 +5327,10 @@
         <v>48</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D186" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E186" t="s">
         <v>3</v>
@@ -5900,11 +5338,8 @@
       <c r="F186" t="s">
         <v>382</v>
       </c>
-      <c r="G186" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -5912,10 +5347,10 @@
         <v>251</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E187" t="s">
         <v>3</v>
@@ -5923,11 +5358,8 @@
       <c r="F187" t="s">
         <v>383</v>
       </c>
-      <c r="G187" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
@@ -5935,10 +5367,10 @@
         <v>103</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E188" t="s">
         <v>17</v>
@@ -5946,11 +5378,8 @@
       <c r="F188" t="s">
         <v>384</v>
       </c>
-      <c r="G188" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>385</v>
       </c>
@@ -5958,10 +5387,10 @@
         <v>64</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D189" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -5969,11 +5398,8 @@
       <c r="F189" t="s">
         <v>386</v>
       </c>
-      <c r="G189" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>387</v>
       </c>
@@ -5981,10 +5407,10 @@
         <v>323</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D190" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E190" t="s">
         <v>17</v>
@@ -5992,11 +5418,8 @@
       <c r="F190" t="s">
         <v>388</v>
       </c>
-      <c r="G190" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>313</v>
       </c>
@@ -6004,10 +5427,10 @@
         <v>139</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E191" t="s">
         <v>3</v>
@@ -6015,11 +5438,8 @@
       <c r="F191" t="s">
         <v>140</v>
       </c>
-      <c r="G191" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>389</v>
       </c>
@@ -6027,10 +5447,10 @@
         <v>335</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E192" t="s">
         <v>17</v>
@@ -6038,11 +5458,8 @@
       <c r="F192" t="s">
         <v>390</v>
       </c>
-      <c r="G192" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
@@ -6050,10 +5467,10 @@
         <v>51</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E193" t="s">
         <v>17</v>
@@ -6061,11 +5478,8 @@
       <c r="F193" t="s">
         <v>392</v>
       </c>
-      <c r="G193" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>393</v>
       </c>
@@ -6073,10 +5487,10 @@
         <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E194" t="s">
         <v>3</v>
@@ -6084,11 +5498,8 @@
       <c r="F194" t="s">
         <v>395</v>
       </c>
-      <c r="G194" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -6096,10 +5507,10 @@
         <v>204</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D195" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E195" t="s">
         <v>3</v>
@@ -6107,11 +5518,8 @@
       <c r="F195" t="s">
         <v>397</v>
       </c>
-      <c r="G195" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>171</v>
       </c>
@@ -6119,10 +5527,10 @@
         <v>48</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -6130,11 +5538,8 @@
       <c r="F196" t="s">
         <v>398</v>
       </c>
-      <c r="G196" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>248</v>
       </c>
@@ -6142,10 +5547,10 @@
         <v>333</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E197" t="s">
         <v>17</v>
@@ -6153,11 +5558,8 @@
       <c r="F197" t="s">
         <v>399</v>
       </c>
-      <c r="G197" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -6165,10 +5567,10 @@
         <v>185</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D198" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E198" t="s">
         <v>17</v>
@@ -6176,11 +5578,8 @@
       <c r="F198" t="s">
         <v>401</v>
       </c>
-      <c r="G198" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -6188,10 +5587,10 @@
         <v>221</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D199" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E199" t="s">
         <v>3</v>
@@ -6199,11 +5598,8 @@
       <c r="F199" t="s">
         <v>402</v>
       </c>
-      <c r="G199" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -6211,10 +5607,10 @@
         <v>221</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E200" t="s">
         <v>3</v>
@@ -6222,11 +5618,8 @@
       <c r="F200" t="s">
         <v>403</v>
       </c>
-      <c r="G200" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>404</v>
       </c>
@@ -6234,19 +5627,16 @@
         <v>236</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D201" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E201" t="s">
         <v>17</v>
       </c>
       <c r="F201" t="s">
         <v>405</v>
-      </c>
-      <c r="G201" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/BAT.api/AppUploads/UserData/TestData.xlsx
+++ b/BAT.api/AppUploads/UserData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ENVY 15 x360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516712C2-7570-4A2A-8B0F-B22878A768DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E0178-C3DB-4754-924C-3F69D0157C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2265" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="23775" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="413">
   <si>
     <t>Email</t>
   </si>
@@ -1255,7 +1255,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>08167828256</t>
+    <t>Age</t>
   </si>
   <si>
     <t>Lagos</t>
@@ -1299,10 +1299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,19 +1606,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -1627,4016 +1625,4619 @@
         <v>408</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>411</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>412</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="E2">
+        <v>8167828256</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>411</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>412</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
+      <c r="E3">
+        <v>8167828256</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>411</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>412</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
+      <c r="E4">
+        <v>8167828256</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>411</v>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>412</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
+      <c r="E5">
+        <v>8167828256</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>411</v>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>412</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="E6">
+        <v>8167828256</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>411</v>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>412</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
+      <c r="E7">
+        <v>8167828256</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>411</v>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>412</v>
       </c>
-      <c r="E8" t="s">
-        <v>3</v>
+      <c r="E8">
+        <v>8167828256</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>411</v>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>412</v>
       </c>
-      <c r="E9" t="s">
-        <v>3</v>
+      <c r="E9">
+        <v>8167828256</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>411</v>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>412</v>
       </c>
-      <c r="E10" t="s">
-        <v>3</v>
+      <c r="E10">
+        <v>8167828256</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>411</v>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>412</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
+      <c r="E11">
+        <v>8167828256</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>411</v>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>412</v>
       </c>
-      <c r="E12" t="s">
-        <v>3</v>
+      <c r="E12">
+        <v>8167828256</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>411</v>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>412</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13">
+        <v>8167828256</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>411</v>
+      <c r="C14" t="s">
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>412</v>
       </c>
-      <c r="E14" t="s">
-        <v>3</v>
+      <c r="E14">
+        <v>8167828256</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>411</v>
+      <c r="C15" t="s">
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>412</v>
       </c>
-      <c r="E15" t="s">
-        <v>3</v>
+      <c r="E15">
+        <v>8167828256</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>411</v>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>412</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
+      <c r="E16">
+        <v>8167828256</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>411</v>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>412</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
+      <c r="E17">
+        <v>8167828256</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>411</v>
+      <c r="C18" t="s">
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>412</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
+      <c r="E18">
+        <v>8167828256</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>411</v>
+      <c r="C19" t="s">
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>412</v>
       </c>
-      <c r="E19" t="s">
-        <v>3</v>
+      <c r="E19">
+        <v>8167828256</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>411</v>
+      <c r="C20" t="s">
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>412</v>
       </c>
-      <c r="E20" t="s">
-        <v>3</v>
+      <c r="E20">
+        <v>8167828256</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>411</v>
+      <c r="C21" t="s">
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>412</v>
       </c>
-      <c r="E21" t="s">
-        <v>3</v>
+      <c r="E21">
+        <v>8167828256</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>411</v>
+      <c r="C22" t="s">
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>412</v>
       </c>
-      <c r="E22" t="s">
-        <v>3</v>
+      <c r="E22">
+        <v>8167828256</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>411</v>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>412</v>
       </c>
-      <c r="E23" t="s">
-        <v>17</v>
+      <c r="E23">
+        <v>8167828256</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>411</v>
+      <c r="C24" t="s">
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>412</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
+      <c r="E24">
+        <v>8167828256</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>411</v>
+      <c r="C25" t="s">
+        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>412</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
+      <c r="E25">
+        <v>8167828256</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>411</v>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>412</v>
       </c>
-      <c r="E26" t="s">
-        <v>3</v>
+      <c r="E26">
+        <v>8167828256</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>411</v>
+      <c r="C27" t="s">
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>412</v>
       </c>
-      <c r="E27" t="s">
-        <v>17</v>
+      <c r="E27">
+        <v>8167828256</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>411</v>
+      <c r="C28" t="s">
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>412</v>
       </c>
-      <c r="E28" t="s">
-        <v>3</v>
+      <c r="E28">
+        <v>8167828256</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>411</v>
+      <c r="C29" t="s">
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>412</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
+      <c r="E29">
+        <v>8167828256</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>411</v>
+      <c r="C30" t="s">
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>412</v>
       </c>
-      <c r="E30" t="s">
-        <v>3</v>
+      <c r="E30">
+        <v>8167828256</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>411</v>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>412</v>
       </c>
-      <c r="E31" t="s">
-        <v>3</v>
+      <c r="E31">
+        <v>8167828256</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>411</v>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>412</v>
       </c>
-      <c r="E32" t="s">
-        <v>3</v>
+      <c r="E32">
+        <v>8167828256</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>411</v>
+      <c r="C33" t="s">
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>412</v>
       </c>
-      <c r="E33" t="s">
-        <v>3</v>
+      <c r="E33">
+        <v>8167828256</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>411</v>
+      <c r="C34" t="s">
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>412</v>
       </c>
-      <c r="E34" t="s">
-        <v>17</v>
+      <c r="E34">
+        <v>8167828256</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>411</v>
+      <c r="C35" t="s">
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>412</v>
       </c>
-      <c r="E35" t="s">
-        <v>3</v>
+      <c r="E35">
+        <v>8167828256</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>411</v>
+      <c r="C36" t="s">
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>412</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
+      <c r="E36">
+        <v>8167828256</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>411</v>
+      <c r="C37" t="s">
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>412</v>
       </c>
-      <c r="E37" t="s">
-        <v>17</v>
+      <c r="E37">
+        <v>8167828256</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
       <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>411</v>
+      <c r="C38" t="s">
+        <v>104</v>
       </c>
       <c r="D38" t="s">
         <v>412</v>
       </c>
-      <c r="E38" t="s">
-        <v>3</v>
+      <c r="E38">
+        <v>8167828256</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>411</v>
+      <c r="C39" t="s">
+        <v>106</v>
       </c>
       <c r="D39" t="s">
         <v>412</v>
       </c>
-      <c r="E39" t="s">
-        <v>3</v>
+      <c r="E39">
+        <v>8167828256</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>411</v>
+      <c r="C40" t="s">
+        <v>108</v>
       </c>
       <c r="D40" t="s">
         <v>412</v>
       </c>
-      <c r="E40" t="s">
-        <v>17</v>
+      <c r="E40">
+        <v>8167828256</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>411</v>
+      <c r="C41" t="s">
+        <v>110</v>
       </c>
       <c r="D41" t="s">
         <v>412</v>
       </c>
-      <c r="E41" t="s">
-        <v>3</v>
+      <c r="E41">
+        <v>8167828256</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>411</v>
+      <c r="C42" t="s">
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>412</v>
       </c>
-      <c r="E42" t="s">
-        <v>3</v>
+      <c r="E42">
+        <v>8167828256</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>411</v>
+      <c r="C43" t="s">
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>412</v>
       </c>
-      <c r="E43" t="s">
-        <v>3</v>
+      <c r="E43">
+        <v>8167828256</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>411</v>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
       <c r="D44" t="s">
         <v>412</v>
       </c>
-      <c r="E44" t="s">
-        <v>3</v>
+      <c r="E44">
+        <v>8167828256</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>411</v>
+      <c r="C45" t="s">
+        <v>119</v>
       </c>
       <c r="D45" t="s">
         <v>412</v>
       </c>
-      <c r="E45" t="s">
-        <v>3</v>
+      <c r="E45">
+        <v>8167828256</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
       <c r="B46" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>411</v>
+      <c r="C46" t="s">
+        <v>121</v>
       </c>
       <c r="D46" t="s">
         <v>412</v>
       </c>
-      <c r="E46" t="s">
-        <v>3</v>
+      <c r="E46">
+        <v>8167828256</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>411</v>
+      <c r="C47" t="s">
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>412</v>
       </c>
-      <c r="E47" t="s">
-        <v>3</v>
+      <c r="E47">
+        <v>8167828256</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
       <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>411</v>
+      <c r="C48" t="s">
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>412</v>
       </c>
-      <c r="E48" t="s">
-        <v>17</v>
+      <c r="E48">
+        <v>8167828256</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>411</v>
+      <c r="C49" t="s">
+        <v>127</v>
       </c>
       <c r="D49" t="s">
         <v>412</v>
       </c>
-      <c r="E49" t="s">
-        <v>3</v>
+      <c r="E49">
+        <v>8167828256</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>128</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>411</v>
+      <c r="C50" t="s">
+        <v>130</v>
       </c>
       <c r="D50" t="s">
         <v>412</v>
       </c>
-      <c r="E50" t="s">
-        <v>17</v>
+      <c r="E50">
+        <v>8167828256</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>411</v>
+      <c r="C51" t="s">
+        <v>133</v>
       </c>
       <c r="D51" t="s">
         <v>412</v>
       </c>
-      <c r="E51" t="s">
-        <v>17</v>
+      <c r="E51">
+        <v>8167828256</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>134</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>411</v>
+      <c r="C52" t="s">
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>412</v>
       </c>
-      <c r="E52" t="s">
-        <v>3</v>
+      <c r="E52">
+        <v>8167828256</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>411</v>
+      <c r="C53" t="s">
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>412</v>
       </c>
-      <c r="E53" t="s">
-        <v>17</v>
+      <c r="E53">
+        <v>8167828256</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
       <c r="B54" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>411</v>
+      <c r="C54" t="s">
+        <v>140</v>
       </c>
       <c r="D54" t="s">
         <v>412</v>
       </c>
-      <c r="E54" t="s">
-        <v>3</v>
+      <c r="E54">
+        <v>8167828256</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>411</v>
+      <c r="C55" t="s">
+        <v>142</v>
       </c>
       <c r="D55" t="s">
         <v>412</v>
       </c>
-      <c r="E55" t="s">
-        <v>3</v>
+      <c r="E55">
+        <v>8167828256</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>411</v>
+      <c r="C56" t="s">
+        <v>144</v>
       </c>
       <c r="D56" t="s">
         <v>412</v>
       </c>
-      <c r="E56" t="s">
-        <v>3</v>
+      <c r="E56">
+        <v>8167828256</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>145</v>
       </c>
       <c r="B57" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>411</v>
+      <c r="C57" t="s">
+        <v>147</v>
       </c>
       <c r="D57" t="s">
         <v>412</v>
       </c>
-      <c r="E57" t="s">
-        <v>17</v>
+      <c r="E57">
+        <v>8167828256</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>411</v>
+      <c r="C58" t="s">
+        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>412</v>
       </c>
-      <c r="E58" t="s">
-        <v>3</v>
+      <c r="E58">
+        <v>8167828256</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>411</v>
+      <c r="C59" t="s">
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>412</v>
       </c>
-      <c r="E59" t="s">
-        <v>17</v>
+      <c r="E59">
+        <v>8167828256</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>153</v>
       </c>
       <c r="B60" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>411</v>
+      <c r="C60" t="s">
+        <v>155</v>
       </c>
       <c r="D60" t="s">
         <v>412</v>
       </c>
-      <c r="E60" t="s">
-        <v>3</v>
+      <c r="E60">
+        <v>8167828256</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>156</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>411</v>
+      <c r="C61" t="s">
+        <v>157</v>
       </c>
       <c r="D61" t="s">
         <v>412</v>
       </c>
-      <c r="E61" t="s">
-        <v>17</v>
+      <c r="E61">
+        <v>8167828256</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>158</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>411</v>
+      <c r="C62" t="s">
+        <v>159</v>
       </c>
       <c r="D62" t="s">
         <v>412</v>
       </c>
-      <c r="E62" t="s">
-        <v>17</v>
+      <c r="E62">
+        <v>8167828256</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>411</v>
+      <c r="C63" t="s">
+        <v>162</v>
       </c>
       <c r="D63" t="s">
         <v>412</v>
       </c>
-      <c r="E63" t="s">
-        <v>3</v>
+      <c r="E63">
+        <v>8167828256</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>163</v>
       </c>
       <c r="B64" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>411</v>
+      <c r="C64" t="s">
+        <v>165</v>
       </c>
       <c r="D64" t="s">
         <v>412</v>
       </c>
-      <c r="E64" t="s">
-        <v>3</v>
+      <c r="E64">
+        <v>8167828256</v>
       </c>
       <c r="F64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>411</v>
+      <c r="C65" t="s">
+        <v>167</v>
       </c>
       <c r="D65" t="s">
         <v>412</v>
       </c>
-      <c r="E65" t="s">
-        <v>3</v>
+      <c r="E65">
+        <v>8167828256</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
       <c r="B66" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>411</v>
+      <c r="C66" t="s">
+        <v>170</v>
       </c>
       <c r="D66" t="s">
         <v>412</v>
       </c>
-      <c r="E66" t="s">
-        <v>17</v>
+      <c r="E66">
+        <v>8167828256</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>411</v>
+      <c r="C67" t="s">
+        <v>173</v>
       </c>
       <c r="D67" t="s">
         <v>412</v>
       </c>
-      <c r="E67" t="s">
-        <v>17</v>
+      <c r="E67">
+        <v>8167828256</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>175</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>411</v>
+      <c r="C68" t="s">
+        <v>176</v>
       </c>
       <c r="D68" t="s">
         <v>412</v>
       </c>
-      <c r="E68" t="s">
-        <v>17</v>
+      <c r="E68">
+        <v>8167828256</v>
       </c>
       <c r="F68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>177</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>411</v>
+      <c r="C69" t="s">
+        <v>108</v>
       </c>
       <c r="D69" t="s">
         <v>412</v>
       </c>
-      <c r="E69" t="s">
-        <v>17</v>
+      <c r="E69">
+        <v>8167828256</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>178</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>411</v>
+      <c r="C70" t="s">
+        <v>179</v>
       </c>
       <c r="D70" t="s">
         <v>412</v>
       </c>
-      <c r="E70" t="s">
-        <v>3</v>
+      <c r="E70">
+        <v>8167828256</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>411</v>
+      <c r="C71" t="s">
+        <v>181</v>
       </c>
       <c r="D71" t="s">
         <v>412</v>
       </c>
-      <c r="E71" t="s">
-        <v>17</v>
+      <c r="E71">
+        <v>8167828256</v>
       </c>
       <c r="F71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>182</v>
       </c>
       <c r="B72" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>411</v>
+      <c r="C72" t="s">
+        <v>184</v>
       </c>
       <c r="D72" t="s">
         <v>412</v>
       </c>
-      <c r="E72" t="s">
-        <v>3</v>
+      <c r="E72">
+        <v>8167828256</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>411</v>
+      <c r="C73" t="s">
+        <v>186</v>
       </c>
       <c r="D73" t="s">
         <v>412</v>
       </c>
-      <c r="E73" t="s">
-        <v>17</v>
+      <c r="E73">
+        <v>8167828256</v>
       </c>
       <c r="F73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
       <c r="B74" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>411</v>
+      <c r="C74" t="s">
+        <v>188</v>
       </c>
       <c r="D74" t="s">
         <v>412</v>
       </c>
-      <c r="E74" t="s">
-        <v>3</v>
+      <c r="E74">
+        <v>8167828256</v>
       </c>
       <c r="F74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>411</v>
+      <c r="C75" t="s">
+        <v>190</v>
       </c>
       <c r="D75" t="s">
         <v>412</v>
       </c>
-      <c r="E75" t="s">
-        <v>3</v>
+      <c r="E75">
+        <v>8167828256</v>
       </c>
       <c r="F75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>124</v>
       </c>
       <c r="B76" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>411</v>
+      <c r="C76" t="s">
+        <v>191</v>
       </c>
       <c r="D76" t="s">
         <v>412</v>
       </c>
-      <c r="E76" t="s">
-        <v>17</v>
+      <c r="E76">
+        <v>8167828256</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>411</v>
+      <c r="C77" t="s">
+        <v>192</v>
       </c>
       <c r="D77" t="s">
         <v>412</v>
       </c>
-      <c r="E77" t="s">
-        <v>3</v>
+      <c r="E77">
+        <v>8167828256</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>193</v>
       </c>
       <c r="B78" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>411</v>
+      <c r="C78" t="s">
+        <v>195</v>
       </c>
       <c r="D78" t="s">
         <v>412</v>
       </c>
-      <c r="E78" t="s">
-        <v>17</v>
+      <c r="E78">
+        <v>8167828256</v>
       </c>
       <c r="F78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G78">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
       <c r="B79" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>411</v>
+      <c r="C79" t="s">
+        <v>196</v>
       </c>
       <c r="D79" t="s">
         <v>412</v>
       </c>
-      <c r="E79" t="s">
-        <v>3</v>
+      <c r="E79">
+        <v>8167828256</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>197</v>
       </c>
       <c r="B80" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>411</v>
+      <c r="C80" t="s">
+        <v>198</v>
       </c>
       <c r="D80" t="s">
         <v>412</v>
       </c>
-      <c r="E80" t="s">
-        <v>17</v>
+      <c r="E80">
+        <v>8167828256</v>
       </c>
       <c r="F80" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>199</v>
       </c>
       <c r="B81" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>411</v>
+      <c r="C81" t="s">
+        <v>201</v>
       </c>
       <c r="D81" t="s">
         <v>412</v>
       </c>
-      <c r="E81" t="s">
-        <v>3</v>
+      <c r="E81">
+        <v>8167828256</v>
       </c>
       <c r="F81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>202</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>411</v>
+      <c r="C82" t="s">
+        <v>203</v>
       </c>
       <c r="D82" t="s">
         <v>412</v>
       </c>
-      <c r="E82" t="s">
-        <v>3</v>
+      <c r="E82">
+        <v>8167828256</v>
       </c>
       <c r="F82" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>67</v>
       </c>
       <c r="B83" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>411</v>
+      <c r="C83" t="s">
+        <v>205</v>
       </c>
       <c r="D83" t="s">
         <v>412</v>
       </c>
-      <c r="E83" t="s">
-        <v>17</v>
+      <c r="E83">
+        <v>8167828256</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>206</v>
       </c>
       <c r="B84" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>411</v>
+      <c r="C84" t="s">
+        <v>207</v>
       </c>
       <c r="D84" t="s">
         <v>412</v>
       </c>
-      <c r="E84" t="s">
-        <v>3</v>
+      <c r="E84">
+        <v>8167828256</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>208</v>
       </c>
       <c r="B85" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>411</v>
+      <c r="C85" t="s">
+        <v>210</v>
       </c>
       <c r="D85" t="s">
         <v>412</v>
       </c>
-      <c r="E85" t="s">
-        <v>17</v>
+      <c r="E85">
+        <v>8167828256</v>
       </c>
       <c r="F85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
       <c r="B86" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>411</v>
+      <c r="C86" t="s">
+        <v>211</v>
       </c>
       <c r="D86" t="s">
         <v>412</v>
       </c>
-      <c r="E86" t="s">
-        <v>3</v>
+      <c r="E86">
+        <v>8167828256</v>
       </c>
       <c r="F86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>212</v>
       </c>
       <c r="B87" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>411</v>
+      <c r="C87" t="s">
+        <v>213</v>
       </c>
       <c r="D87" t="s">
         <v>412</v>
       </c>
-      <c r="E87" t="s">
-        <v>17</v>
+      <c r="E87">
+        <v>8167828256</v>
       </c>
       <c r="F87" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
       <c r="B88" t="s">
         <v>214</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>411</v>
+      <c r="C88" t="s">
+        <v>215</v>
       </c>
       <c r="D88" t="s">
         <v>412</v>
       </c>
-      <c r="E88" t="s">
-        <v>3</v>
+      <c r="E88">
+        <v>8167828256</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>216</v>
       </c>
       <c r="B89" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>411</v>
+      <c r="C89" t="s">
+        <v>218</v>
       </c>
       <c r="D89" t="s">
         <v>412</v>
       </c>
-      <c r="E89" t="s">
-        <v>3</v>
+      <c r="E89">
+        <v>8167828256</v>
       </c>
       <c r="F89" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>219</v>
       </c>
       <c r="B90" t="s">
         <v>169</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>411</v>
+      <c r="C90" t="s">
+        <v>220</v>
       </c>
       <c r="D90" t="s">
         <v>412</v>
       </c>
-      <c r="E90" t="s">
-        <v>3</v>
+      <c r="E90">
+        <v>8167828256</v>
       </c>
       <c r="F90" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
       <c r="B91" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>411</v>
+      <c r="C91" t="s">
+        <v>222</v>
       </c>
       <c r="D91" t="s">
         <v>412</v>
       </c>
-      <c r="E91" t="s">
-        <v>3</v>
+      <c r="E91">
+        <v>8167828256</v>
       </c>
       <c r="F91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>411</v>
+      <c r="C92" t="s">
+        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>412</v>
       </c>
-      <c r="E92" t="s">
-        <v>3</v>
+      <c r="E92">
+        <v>8167828256</v>
       </c>
       <c r="F92" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>225</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>411</v>
+      <c r="C93" t="s">
+        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>412</v>
       </c>
-      <c r="E93" t="s">
-        <v>17</v>
+      <c r="E93">
+        <v>8167828256</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>227</v>
       </c>
       <c r="B94" t="s">
         <v>228</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>411</v>
+      <c r="C94" t="s">
+        <v>229</v>
       </c>
       <c r="D94" t="s">
         <v>412</v>
       </c>
-      <c r="E94" t="s">
-        <v>3</v>
+      <c r="E94">
+        <v>8167828256</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
       <c r="B95" t="s">
         <v>231</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>411</v>
+      <c r="C95" t="s">
+        <v>232</v>
       </c>
       <c r="D95" t="s">
         <v>412</v>
       </c>
-      <c r="E95" t="s">
-        <v>17</v>
+      <c r="E95">
+        <v>8167828256</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G95">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
       <c r="B96" t="s">
         <v>233</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>411</v>
+      <c r="C96" t="s">
+        <v>234</v>
       </c>
       <c r="D96" t="s">
         <v>412</v>
       </c>
-      <c r="E96" t="s">
-        <v>3</v>
+      <c r="E96">
+        <v>8167828256</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>235</v>
       </c>
       <c r="B97" t="s">
         <v>236</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>411</v>
+      <c r="C97" t="s">
+        <v>237</v>
       </c>
       <c r="D97" t="s">
         <v>412</v>
       </c>
-      <c r="E97" t="s">
-        <v>3</v>
+      <c r="E97">
+        <v>8167828256</v>
       </c>
       <c r="F97" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>238</v>
       </c>
       <c r="B98" t="s">
         <v>239</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>411</v>
+      <c r="C98" t="s">
+        <v>240</v>
       </c>
       <c r="D98" t="s">
         <v>412</v>
       </c>
-      <c r="E98" t="s">
-        <v>3</v>
+      <c r="E98">
+        <v>8167828256</v>
       </c>
       <c r="F98" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>216</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>411</v>
+      <c r="C99" t="s">
+        <v>241</v>
       </c>
       <c r="D99" t="s">
         <v>412</v>
       </c>
-      <c r="E99" t="s">
-        <v>3</v>
+      <c r="E99">
+        <v>8167828256</v>
       </c>
       <c r="F99" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>225</v>
       </c>
       <c r="B100" t="s">
         <v>228</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>411</v>
+      <c r="C100" t="s">
+        <v>229</v>
       </c>
       <c r="D100" t="s">
         <v>412</v>
       </c>
-      <c r="E100" t="s">
-        <v>17</v>
+      <c r="E100">
+        <v>8167828256</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G100">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>242</v>
       </c>
       <c r="B101" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>411</v>
+      <c r="C101" t="s">
+        <v>244</v>
       </c>
       <c r="D101" t="s">
         <v>412</v>
       </c>
-      <c r="E101" t="s">
-        <v>3</v>
+      <c r="E101">
+        <v>8167828256</v>
       </c>
       <c r="F101" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>245</v>
       </c>
       <c r="B102" t="s">
         <v>92</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>411</v>
+      <c r="C102" t="s">
+        <v>246</v>
       </c>
       <c r="D102" t="s">
         <v>412</v>
       </c>
-      <c r="E102" t="s">
-        <v>17</v>
+      <c r="E102">
+        <v>8167828256</v>
       </c>
       <c r="F102" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
       <c r="B103" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>411</v>
+      <c r="C103" t="s">
+        <v>247</v>
       </c>
       <c r="D103" t="s">
         <v>412</v>
       </c>
-      <c r="E103" t="s">
-        <v>17</v>
+      <c r="E103">
+        <v>8167828256</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G103">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
       <c r="B104" t="s">
         <v>169</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>411</v>
+      <c r="C104" t="s">
+        <v>249</v>
       </c>
       <c r="D104" t="s">
         <v>412</v>
       </c>
-      <c r="E104" t="s">
-        <v>17</v>
+      <c r="E104">
+        <v>8167828256</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G104">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>145</v>
       </c>
       <c r="B105" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>411</v>
+      <c r="C105" t="s">
+        <v>246</v>
       </c>
       <c r="D105" t="s">
         <v>412</v>
       </c>
-      <c r="E105" t="s">
-        <v>17</v>
+      <c r="E105">
+        <v>8167828256</v>
       </c>
       <c r="F105" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>411</v>
+      <c r="C106" t="s">
+        <v>252</v>
       </c>
       <c r="D106" t="s">
         <v>412</v>
       </c>
-      <c r="E106" t="s">
-        <v>17</v>
+      <c r="E106">
+        <v>8167828256</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G106">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
       <c r="B107" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>411</v>
+      <c r="C107" t="s">
+        <v>254</v>
       </c>
       <c r="D107" t="s">
         <v>412</v>
       </c>
-      <c r="E107" t="s">
-        <v>17</v>
+      <c r="E107">
+        <v>8167828256</v>
       </c>
       <c r="F107" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G107">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
       <c r="B108" t="s">
         <v>256</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>411</v>
+      <c r="C108" t="s">
+        <v>257</v>
       </c>
       <c r="D108" t="s">
         <v>412</v>
       </c>
-      <c r="E108" t="s">
-        <v>3</v>
+      <c r="E108">
+        <v>8167828256</v>
       </c>
       <c r="F108" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>258</v>
       </c>
       <c r="B109" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>411</v>
+      <c r="C109" t="s">
+        <v>260</v>
       </c>
       <c r="D109" t="s">
         <v>412</v>
       </c>
-      <c r="E109" t="s">
-        <v>17</v>
+      <c r="E109">
+        <v>8167828256</v>
       </c>
       <c r="F109" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G109">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>177</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>411</v>
+      <c r="C110" t="s">
+        <v>261</v>
       </c>
       <c r="D110" t="s">
         <v>412</v>
       </c>
-      <c r="E110" t="s">
-        <v>17</v>
+      <c r="E110">
+        <v>8167828256</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G110">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
       <c r="B111" t="s">
         <v>263</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>411</v>
+      <c r="C111" t="s">
+        <v>264</v>
       </c>
       <c r="D111" t="s">
         <v>412</v>
       </c>
-      <c r="E111" t="s">
-        <v>17</v>
+      <c r="E111">
+        <v>8167828256</v>
       </c>
       <c r="F111" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G111">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>199</v>
       </c>
       <c r="B112" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>411</v>
+      <c r="C112" t="s">
+        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>412</v>
       </c>
-      <c r="E112" t="s">
-        <v>3</v>
+      <c r="E112">
+        <v>8167828256</v>
       </c>
       <c r="F112" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>267</v>
       </c>
       <c r="B113" t="s">
         <v>268</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>411</v>
+      <c r="C113" t="s">
+        <v>269</v>
       </c>
       <c r="D113" t="s">
         <v>412</v>
       </c>
-      <c r="E113" t="s">
-        <v>3</v>
+      <c r="E113">
+        <v>8167828256</v>
       </c>
       <c r="F113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>63</v>
       </c>
       <c r="B114" t="s">
         <v>270</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>411</v>
+      <c r="C114" t="s">
+        <v>271</v>
       </c>
       <c r="D114" t="s">
         <v>412</v>
       </c>
-      <c r="E114" t="s">
-        <v>17</v>
+      <c r="E114">
+        <v>8167828256</v>
       </c>
       <c r="F114" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G114">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>55</v>
       </c>
       <c r="B115" t="s">
         <v>272</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>411</v>
+      <c r="C115" t="s">
+        <v>273</v>
       </c>
       <c r="D115" t="s">
         <v>412</v>
       </c>
-      <c r="E115" t="s">
-        <v>3</v>
+      <c r="E115">
+        <v>8167828256</v>
       </c>
       <c r="F115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>158</v>
       </c>
       <c r="B116" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>411</v>
+      <c r="C116" t="s">
+        <v>274</v>
       </c>
       <c r="D116" t="s">
         <v>412</v>
       </c>
-      <c r="E116" t="s">
-        <v>17</v>
+      <c r="E116">
+        <v>8167828256</v>
       </c>
       <c r="F116" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G116">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>275</v>
       </c>
       <c r="B117" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>411</v>
+      <c r="C117" t="s">
+        <v>125</v>
       </c>
       <c r="D117" t="s">
         <v>412</v>
       </c>
-      <c r="E117" t="s">
-        <v>17</v>
+      <c r="E117">
+        <v>8167828256</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G117">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
       <c r="B118" t="s">
         <v>270</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>411</v>
+      <c r="C118" t="s">
+        <v>276</v>
       </c>
       <c r="D118" t="s">
         <v>412</v>
       </c>
-      <c r="E118" t="s">
-        <v>3</v>
+      <c r="E118">
+        <v>8167828256</v>
       </c>
       <c r="F118" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>277</v>
       </c>
       <c r="B119" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>411</v>
+      <c r="C119" t="s">
+        <v>278</v>
       </c>
       <c r="D119" t="s">
         <v>412</v>
       </c>
-      <c r="E119" t="s">
-        <v>17</v>
+      <c r="E119">
+        <v>8167828256</v>
       </c>
       <c r="F119" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G119">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>279</v>
       </c>
       <c r="B120" t="s">
         <v>280</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>411</v>
+      <c r="C120" t="s">
+        <v>281</v>
       </c>
       <c r="D120" t="s">
         <v>412</v>
       </c>
-      <c r="E120" t="s">
-        <v>17</v>
+      <c r="E120">
+        <v>8167828256</v>
       </c>
       <c r="F120" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G120">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>282</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>411</v>
+      <c r="C121" t="s">
+        <v>283</v>
       </c>
       <c r="D121" t="s">
         <v>412</v>
       </c>
-      <c r="E121" t="s">
-        <v>17</v>
+      <c r="E121">
+        <v>8167828256</v>
       </c>
       <c r="F121" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G121">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>76</v>
       </c>
       <c r="B122" t="s">
         <v>265</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>411</v>
+      <c r="C122" t="s">
+        <v>284</v>
       </c>
       <c r="D122" t="s">
         <v>412</v>
       </c>
-      <c r="E122" t="s">
-        <v>3</v>
+      <c r="E122">
+        <v>8167828256</v>
       </c>
       <c r="F122" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>285</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>411</v>
+      <c r="C123" t="s">
+        <v>69</v>
       </c>
       <c r="D123" t="s">
         <v>412</v>
       </c>
-      <c r="E123" t="s">
-        <v>17</v>
+      <c r="E123">
+        <v>8167828256</v>
       </c>
       <c r="F123" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G123">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>286</v>
       </c>
       <c r="B124" t="s">
         <v>89</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>411</v>
+      <c r="C124" t="s">
+        <v>90</v>
       </c>
       <c r="D124" t="s">
         <v>412</v>
       </c>
-      <c r="E124" t="s">
-        <v>17</v>
+      <c r="E124">
+        <v>8167828256</v>
       </c>
       <c r="F124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G124">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>287</v>
       </c>
       <c r="B125" t="s">
         <v>118</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>411</v>
+      <c r="C125" t="s">
+        <v>288</v>
       </c>
       <c r="D125" t="s">
         <v>412</v>
       </c>
-      <c r="E125" t="s">
-        <v>3</v>
+      <c r="E125">
+        <v>8167828256</v>
       </c>
       <c r="F125" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
       <c r="B126" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>411</v>
+      <c r="C126" t="s">
+        <v>289</v>
       </c>
       <c r="D126" t="s">
         <v>412</v>
       </c>
-      <c r="E126" t="s">
-        <v>3</v>
+      <c r="E126">
+        <v>8167828256</v>
       </c>
       <c r="F126" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>411</v>
+      <c r="C127" t="s">
+        <v>290</v>
       </c>
       <c r="D127" t="s">
         <v>412</v>
       </c>
-      <c r="E127" t="s">
-        <v>17</v>
+      <c r="E127">
+        <v>8167828256</v>
       </c>
       <c r="F127" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G127">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>47</v>
       </c>
       <c r="B128" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>411</v>
+      <c r="C128" t="s">
+        <v>291</v>
       </c>
       <c r="D128" t="s">
         <v>412</v>
       </c>
-      <c r="E128" t="s">
-        <v>17</v>
+      <c r="E128">
+        <v>8167828256</v>
       </c>
       <c r="F128" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G128">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>154</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>411</v>
+      <c r="C129" t="s">
+        <v>292</v>
       </c>
       <c r="D129" t="s">
         <v>412</v>
       </c>
-      <c r="E129" t="s">
-        <v>17</v>
+      <c r="E129">
+        <v>8167828256</v>
       </c>
       <c r="F129" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G129">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>293</v>
       </c>
       <c r="B130" t="s">
         <v>23</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>411</v>
+      <c r="C130" t="s">
+        <v>294</v>
       </c>
       <c r="D130" t="s">
         <v>412</v>
       </c>
-      <c r="E130" t="s">
-        <v>17</v>
+      <c r="E130">
+        <v>8167828256</v>
       </c>
       <c r="F130" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G130">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>41</v>
       </c>
       <c r="B131" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>411</v>
+      <c r="C131" t="s">
+        <v>295</v>
       </c>
       <c r="D131" t="s">
         <v>412</v>
       </c>
-      <c r="E131" t="s">
-        <v>3</v>
+      <c r="E131">
+        <v>8167828256</v>
       </c>
       <c r="F131" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>296</v>
       </c>
       <c r="B132" t="s">
         <v>297</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>411</v>
+      <c r="C132" t="s">
+        <v>298</v>
       </c>
       <c r="D132" t="s">
         <v>412</v>
       </c>
-      <c r="E132" t="s">
-        <v>17</v>
+      <c r="E132">
+        <v>8167828256</v>
       </c>
       <c r="F132" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G132">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>299</v>
       </c>
       <c r="B133" t="s">
         <v>300</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>411</v>
+      <c r="C133" t="s">
+        <v>301</v>
       </c>
       <c r="D133" t="s">
         <v>412</v>
       </c>
-      <c r="E133" t="s">
-        <v>3</v>
+      <c r="E133">
+        <v>8167828256</v>
       </c>
       <c r="F133" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>255</v>
       </c>
       <c r="B134" t="s">
         <v>302</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>411</v>
+      <c r="C134" t="s">
+        <v>303</v>
       </c>
       <c r="D134" t="s">
         <v>412</v>
       </c>
-      <c r="E134" t="s">
-        <v>3</v>
+      <c r="E134">
+        <v>8167828256</v>
       </c>
       <c r="F134" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>285</v>
       </c>
       <c r="B135" t="s">
         <v>304</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>411</v>
+      <c r="C135" t="s">
+        <v>305</v>
       </c>
       <c r="D135" t="s">
         <v>412</v>
       </c>
-      <c r="E135" t="s">
-        <v>17</v>
+      <c r="E135">
+        <v>8167828256</v>
       </c>
       <c r="F135" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G135">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>306</v>
       </c>
       <c r="B136" t="s">
         <v>118</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>411</v>
+      <c r="C136" t="s">
+        <v>307</v>
       </c>
       <c r="D136" t="s">
         <v>412</v>
       </c>
-      <c r="E136" t="s">
-        <v>17</v>
+      <c r="E136">
+        <v>8167828256</v>
       </c>
       <c r="F136" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G136">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>308</v>
       </c>
       <c r="B137" t="s">
         <v>309</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>411</v>
+      <c r="C137" t="s">
+        <v>310</v>
       </c>
       <c r="D137" t="s">
         <v>412</v>
       </c>
-      <c r="E137" t="s">
-        <v>17</v>
+      <c r="E137">
+        <v>8167828256</v>
       </c>
       <c r="F137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G137">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>66</v>
       </c>
       <c r="B138" t="s">
         <v>183</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>411</v>
+      <c r="C138" t="s">
+        <v>311</v>
       </c>
       <c r="D138" t="s">
         <v>412</v>
       </c>
-      <c r="E138" t="s">
-        <v>17</v>
+      <c r="E138">
+        <v>8167828256</v>
       </c>
       <c r="F138" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G138">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
       <c r="B139" t="s">
         <v>214</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>411</v>
+      <c r="C139" t="s">
+        <v>312</v>
       </c>
       <c r="D139" t="s">
         <v>412</v>
       </c>
-      <c r="E139" t="s">
-        <v>3</v>
+      <c r="E139">
+        <v>8167828256</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>313</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>411</v>
+      <c r="C140" t="s">
+        <v>314</v>
       </c>
       <c r="D140" t="s">
         <v>412</v>
       </c>
-      <c r="E140" t="s">
-        <v>3</v>
+      <c r="E140">
+        <v>8167828256</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>255</v>
       </c>
       <c r="B141" t="s">
         <v>209</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>411</v>
+      <c r="C141" t="s">
+        <v>315</v>
       </c>
       <c r="D141" t="s">
         <v>412</v>
       </c>
-      <c r="E141" t="s">
-        <v>3</v>
+      <c r="E141">
+        <v>8167828256</v>
       </c>
       <c r="F141" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
       <c r="B142" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>411</v>
+      <c r="C142" t="s">
+        <v>316</v>
       </c>
       <c r="D142" t="s">
         <v>412</v>
       </c>
-      <c r="E142" t="s">
-        <v>3</v>
+      <c r="E142">
+        <v>8167828256</v>
       </c>
       <c r="F142" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>411</v>
+      <c r="C143" t="s">
+        <v>317</v>
       </c>
       <c r="D143" t="s">
         <v>412</v>
       </c>
-      <c r="E143" t="s">
-        <v>3</v>
+      <c r="E143">
+        <v>8167828256</v>
       </c>
       <c r="F143" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>102</v>
       </c>
       <c r="B144" t="s">
         <v>268</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>411</v>
+      <c r="C144" t="s">
+        <v>318</v>
       </c>
       <c r="D144" t="s">
         <v>412</v>
       </c>
-      <c r="E144" t="s">
-        <v>3</v>
+      <c r="E144">
+        <v>8167828256</v>
       </c>
       <c r="F144" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
       <c r="B145" t="s">
         <v>319</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>411</v>
+      <c r="C145" t="s">
+        <v>320</v>
       </c>
       <c r="D145" t="s">
         <v>412</v>
       </c>
-      <c r="E145" t="s">
-        <v>17</v>
+      <c r="E145">
+        <v>8167828256</v>
       </c>
       <c r="F145" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G145">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
       <c r="B146" t="s">
         <v>68</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>411</v>
+      <c r="C146" t="s">
+        <v>321</v>
       </c>
       <c r="D146" t="s">
         <v>412</v>
       </c>
-      <c r="E146" t="s">
-        <v>17</v>
+      <c r="E146">
+        <v>8167828256</v>
       </c>
       <c r="F146" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G146">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>322</v>
       </c>
       <c r="B147" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>411</v>
+      <c r="C147" t="s">
+        <v>324</v>
       </c>
       <c r="D147" t="s">
         <v>412</v>
       </c>
-      <c r="E147" t="s">
-        <v>17</v>
+      <c r="E147">
+        <v>8167828256</v>
       </c>
       <c r="F147" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G147">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>258</v>
       </c>
       <c r="B148" t="s">
         <v>55</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>411</v>
+      <c r="C148" t="s">
+        <v>325</v>
       </c>
       <c r="D148" t="s">
         <v>412</v>
       </c>
-      <c r="E148" t="s">
-        <v>17</v>
+      <c r="E148">
+        <v>8167828256</v>
       </c>
       <c r="F148" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G148">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>326</v>
       </c>
       <c r="B149" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>411</v>
+      <c r="C149" t="s">
+        <v>327</v>
       </c>
       <c r="D149" t="s">
         <v>412</v>
       </c>
-      <c r="E149" t="s">
-        <v>17</v>
+      <c r="E149">
+        <v>8167828256</v>
       </c>
       <c r="F149" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G149">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>94</v>
       </c>
       <c r="B150" t="s">
         <v>120</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>411</v>
+      <c r="C150" t="s">
+        <v>328</v>
       </c>
       <c r="D150" t="s">
         <v>412</v>
       </c>
-      <c r="E150" t="s">
-        <v>3</v>
+      <c r="E150">
+        <v>8167828256</v>
       </c>
       <c r="F150" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>329</v>
       </c>
       <c r="B151" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>411</v>
+      <c r="C151" t="s">
+        <v>330</v>
       </c>
       <c r="D151" t="s">
         <v>412</v>
       </c>
-      <c r="E151" t="s">
-        <v>3</v>
+      <c r="E151">
+        <v>8167828256</v>
       </c>
       <c r="F151" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>117</v>
       </c>
       <c r="B152" t="s">
         <v>175</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>411</v>
+      <c r="C152" t="s">
+        <v>331</v>
       </c>
       <c r="D152" t="s">
         <v>412</v>
       </c>
-      <c r="E152" t="s">
-        <v>3</v>
+      <c r="E152">
+        <v>8167828256</v>
       </c>
       <c r="F152" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>329</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>411</v>
+      <c r="C153" t="s">
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>412</v>
       </c>
-      <c r="E153" t="s">
-        <v>3</v>
+      <c r="E153">
+        <v>8167828256</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>332</v>
       </c>
       <c r="B154" t="s">
         <v>333</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>411</v>
+      <c r="C154" t="s">
+        <v>334</v>
       </c>
       <c r="D154" t="s">
         <v>412</v>
       </c>
-      <c r="E154" t="s">
-        <v>3</v>
+      <c r="E154">
+        <v>8167828256</v>
       </c>
       <c r="F154" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
       <c r="B155" t="s">
         <v>335</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>411</v>
+      <c r="C155" t="s">
+        <v>336</v>
       </c>
       <c r="D155" t="s">
         <v>412</v>
       </c>
-      <c r="E155" t="s">
-        <v>17</v>
+      <c r="E155">
+        <v>8167828256</v>
       </c>
       <c r="F155" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G155">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>337</v>
       </c>
       <c r="B156" t="s">
         <v>338</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>411</v>
+      <c r="C156" t="s">
+        <v>339</v>
       </c>
       <c r="D156" t="s">
         <v>412</v>
       </c>
-      <c r="E156" t="s">
-        <v>17</v>
+      <c r="E156">
+        <v>8167828256</v>
       </c>
       <c r="F156" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G156">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>340</v>
       </c>
       <c r="B157" t="s">
         <v>221</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>411</v>
+      <c r="C157" t="s">
+        <v>341</v>
       </c>
       <c r="D157" t="s">
         <v>412</v>
       </c>
-      <c r="E157" t="s">
-        <v>17</v>
+      <c r="E157">
+        <v>8167828256</v>
       </c>
       <c r="F157" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G157">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>342</v>
       </c>
       <c r="B158" t="s">
         <v>343</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>411</v>
+      <c r="C158" t="s">
+        <v>344</v>
       </c>
       <c r="D158" t="s">
         <v>412</v>
       </c>
-      <c r="E158" t="s">
-        <v>3</v>
+      <c r="E158">
+        <v>8167828256</v>
       </c>
       <c r="F158" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>100</v>
       </c>
       <c r="B159" t="s">
         <v>185</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>411</v>
+      <c r="C159" t="s">
+        <v>345</v>
       </c>
       <c r="D159" t="s">
         <v>412</v>
       </c>
-      <c r="E159" t="s">
-        <v>3</v>
+      <c r="E159">
+        <v>8167828256</v>
       </c>
       <c r="F159" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>346</v>
       </c>
       <c r="B160" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>411</v>
+      <c r="C160" t="s">
+        <v>347</v>
       </c>
       <c r="D160" t="s">
         <v>412</v>
       </c>
-      <c r="E160" t="s">
-        <v>17</v>
+      <c r="E160">
+        <v>8167828256</v>
       </c>
       <c r="F160" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G160">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>348</v>
       </c>
       <c r="B161" t="s">
         <v>139</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>411</v>
+      <c r="C161" t="s">
+        <v>317</v>
       </c>
       <c r="D161" t="s">
         <v>412</v>
       </c>
-      <c r="E161" t="s">
-        <v>17</v>
+      <c r="E161">
+        <v>8167828256</v>
       </c>
       <c r="F161" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G161">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>349</v>
       </c>
       <c r="B162" t="s">
         <v>323</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>411</v>
+      <c r="C162" t="s">
+        <v>350</v>
       </c>
       <c r="D162" t="s">
         <v>412</v>
       </c>
-      <c r="E162" t="s">
-        <v>3</v>
+      <c r="E162">
+        <v>8167828256</v>
       </c>
       <c r="F162" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>134</v>
       </c>
       <c r="B163" t="s">
         <v>82</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>411</v>
+      <c r="C163" t="s">
+        <v>351</v>
       </c>
       <c r="D163" t="s">
         <v>412</v>
       </c>
-      <c r="E163" t="s">
-        <v>3</v>
+      <c r="E163">
+        <v>8167828256</v>
       </c>
       <c r="F163" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>352</v>
       </c>
       <c r="B164" t="s">
         <v>154</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>411</v>
+      <c r="C164" t="s">
+        <v>353</v>
       </c>
       <c r="D164" t="s">
         <v>412</v>
       </c>
-      <c r="E164" t="s">
-        <v>17</v>
+      <c r="E164">
+        <v>8167828256</v>
       </c>
       <c r="F164" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G164">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>63</v>
       </c>
       <c r="B165" t="s">
         <v>259</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>411</v>
+      <c r="C165" t="s">
+        <v>354</v>
       </c>
       <c r="D165" t="s">
         <v>412</v>
       </c>
-      <c r="E165" t="s">
-        <v>17</v>
+      <c r="E165">
+        <v>8167828256</v>
       </c>
       <c r="F165" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G165">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>355</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>411</v>
+      <c r="C166" t="s">
+        <v>356</v>
       </c>
       <c r="D166" t="s">
         <v>412</v>
       </c>
-      <c r="E166" t="s">
-        <v>3</v>
+      <c r="E166">
+        <v>8167828256</v>
       </c>
       <c r="F166" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>357</v>
       </c>
       <c r="B167" t="s">
         <v>187</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>411</v>
+      <c r="C167" t="s">
+        <v>358</v>
       </c>
       <c r="D167" t="s">
         <v>412</v>
       </c>
-      <c r="E167" t="s">
-        <v>3</v>
+      <c r="E167">
+        <v>8167828256</v>
       </c>
       <c r="F167" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>359</v>
       </c>
       <c r="B168" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>411</v>
+      <c r="C168" t="s">
+        <v>360</v>
       </c>
       <c r="D168" t="s">
         <v>412</v>
       </c>
-      <c r="E168" t="s">
-        <v>17</v>
+      <c r="E168">
+        <v>8167828256</v>
       </c>
       <c r="F168" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G168">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>270</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>411</v>
+      <c r="C169" t="s">
+        <v>361</v>
       </c>
       <c r="D169" t="s">
         <v>412</v>
       </c>
-      <c r="E169" t="s">
-        <v>17</v>
+      <c r="E169">
+        <v>8167828256</v>
       </c>
       <c r="F169" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G169">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>348</v>
       </c>
       <c r="B170" t="s">
         <v>265</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>411</v>
+      <c r="C170" t="s">
+        <v>362</v>
       </c>
       <c r="D170" t="s">
         <v>412</v>
       </c>
-      <c r="E170" t="s">
-        <v>17</v>
+      <c r="E170">
+        <v>8167828256</v>
       </c>
       <c r="F170" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G170">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>158</v>
       </c>
       <c r="B171" t="s">
         <v>132</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>411</v>
+      <c r="C171" t="s">
+        <v>363</v>
       </c>
       <c r="D171" t="s">
         <v>412</v>
       </c>
-      <c r="E171" t="s">
-        <v>17</v>
+      <c r="E171">
+        <v>8167828256</v>
       </c>
       <c r="F171" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G171">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>364</v>
       </c>
       <c r="B172" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>411</v>
+      <c r="C172" t="s">
+        <v>366</v>
       </c>
       <c r="D172" t="s">
         <v>412</v>
       </c>
-      <c r="E172" t="s">
-        <v>3</v>
+      <c r="E172">
+        <v>8167828256</v>
       </c>
       <c r="F172" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>364</v>
       </c>
       <c r="B173" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>411</v>
+      <c r="C173" t="s">
+        <v>57</v>
       </c>
       <c r="D173" t="s">
         <v>412</v>
       </c>
-      <c r="E173" t="s">
-        <v>3</v>
+      <c r="E173">
+        <v>8167828256</v>
       </c>
       <c r="F173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>182</v>
       </c>
       <c r="B174" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>411</v>
+      <c r="C174" t="s">
+        <v>367</v>
       </c>
       <c r="D174" t="s">
         <v>412</v>
       </c>
-      <c r="E174" t="s">
-        <v>3</v>
+      <c r="E174">
+        <v>8167828256</v>
       </c>
       <c r="F174" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>368</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>411</v>
+      <c r="C175" t="s">
+        <v>369</v>
       </c>
       <c r="D175" t="s">
         <v>412</v>
       </c>
-      <c r="E175" t="s">
-        <v>3</v>
+      <c r="E175">
+        <v>8167828256</v>
       </c>
       <c r="F175" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>76</v>
       </c>
       <c r="B176" t="s">
         <v>333</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>411</v>
+      <c r="C176" t="s">
+        <v>370</v>
       </c>
       <c r="D176" t="s">
         <v>412</v>
       </c>
-      <c r="E176" t="s">
-        <v>3</v>
+      <c r="E176">
+        <v>8167828256</v>
       </c>
       <c r="F176" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G176">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>371</v>
       </c>
       <c r="B177" t="s">
         <v>272</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>411</v>
+      <c r="C177" t="s">
+        <v>273</v>
       </c>
       <c r="D177" t="s">
         <v>412</v>
       </c>
-      <c r="E177" t="s">
-        <v>17</v>
+      <c r="E177">
+        <v>8167828256</v>
       </c>
       <c r="F177" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G177">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
       <c r="B178" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>411</v>
+      <c r="C178" t="s">
+        <v>373</v>
       </c>
       <c r="D178" t="s">
         <v>412</v>
       </c>
-      <c r="E178" t="s">
-        <v>17</v>
+      <c r="E178">
+        <v>8167828256</v>
       </c>
       <c r="F178" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G178">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
       <c r="B179" t="s">
         <v>95</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>411</v>
+      <c r="C179" t="s">
+        <v>374</v>
       </c>
       <c r="D179" t="s">
         <v>412</v>
       </c>
-      <c r="E179" t="s">
-        <v>17</v>
+      <c r="E179">
+        <v>8167828256</v>
       </c>
       <c r="F179" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G179">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>61</v>
       </c>
       <c r="B180" t="s">
         <v>365</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>411</v>
+      <c r="C180" t="s">
+        <v>375</v>
       </c>
       <c r="D180" t="s">
         <v>412</v>
       </c>
-      <c r="E180" t="s">
-        <v>3</v>
+      <c r="E180">
+        <v>8167828256</v>
       </c>
       <c r="F180" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>100</v>
       </c>
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>411</v>
+      <c r="C181" t="s">
+        <v>376</v>
       </c>
       <c r="D181" t="s">
         <v>412</v>
       </c>
-      <c r="E181" t="s">
-        <v>3</v>
+      <c r="E181">
+        <v>8167828256</v>
       </c>
       <c r="F181" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>349</v>
       </c>
       <c r="B182" t="s">
         <v>189</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>411</v>
+      <c r="C182" t="s">
+        <v>377</v>
       </c>
       <c r="D182" t="s">
         <v>412</v>
       </c>
-      <c r="E182" t="s">
-        <v>3</v>
+      <c r="E182">
+        <v>8167828256</v>
       </c>
       <c r="F182" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>70</v>
       </c>
       <c r="B183" t="s">
         <v>129</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>411</v>
+      <c r="C183" t="s">
+        <v>378</v>
       </c>
       <c r="D183" t="s">
         <v>412</v>
       </c>
-      <c r="E183" t="s">
-        <v>3</v>
+      <c r="E183">
+        <v>8167828256</v>
       </c>
       <c r="F183" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>160</v>
       </c>
       <c r="B184" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>411</v>
+      <c r="C184" t="s">
+        <v>379</v>
       </c>
       <c r="D184" t="s">
         <v>412</v>
       </c>
-      <c r="E184" t="s">
-        <v>3</v>
+      <c r="E184">
+        <v>8167828256</v>
       </c>
       <c r="F184" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>411</v>
+      <c r="C185" t="s">
+        <v>380</v>
       </c>
       <c r="D185" t="s">
         <v>412</v>
       </c>
-      <c r="E185" t="s">
-        <v>3</v>
+      <c r="E185">
+        <v>8167828256</v>
       </c>
       <c r="F185" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>381</v>
       </c>
       <c r="B186" t="s">
         <v>48</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>411</v>
+      <c r="C186" t="s">
+        <v>382</v>
       </c>
       <c r="D186" t="s">
         <v>412</v>
       </c>
-      <c r="E186" t="s">
-        <v>3</v>
+      <c r="E186">
+        <v>8167828256</v>
       </c>
       <c r="F186" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G186">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>118</v>
       </c>
       <c r="B187" t="s">
         <v>251</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>411</v>
+      <c r="C187" t="s">
+        <v>383</v>
       </c>
       <c r="D187" t="s">
         <v>412</v>
       </c>
-      <c r="E187" t="s">
-        <v>3</v>
+      <c r="E187">
+        <v>8167828256</v>
       </c>
       <c r="F187" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
       <c r="B188" t="s">
         <v>103</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>411</v>
+      <c r="C188" t="s">
+        <v>384</v>
       </c>
       <c r="D188" t="s">
         <v>412</v>
       </c>
-      <c r="E188" t="s">
-        <v>17</v>
+      <c r="E188">
+        <v>8167828256</v>
       </c>
       <c r="F188" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G188">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>385</v>
       </c>
       <c r="B189" t="s">
         <v>64</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>411</v>
+      <c r="C189" t="s">
+        <v>386</v>
       </c>
       <c r="D189" t="s">
         <v>412</v>
       </c>
-      <c r="E189" t="s">
-        <v>17</v>
+      <c r="E189">
+        <v>8167828256</v>
       </c>
       <c r="F189" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G189">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>387</v>
       </c>
       <c r="B190" t="s">
         <v>323</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>411</v>
+      <c r="C190" t="s">
+        <v>388</v>
       </c>
       <c r="D190" t="s">
         <v>412</v>
       </c>
-      <c r="E190" t="s">
-        <v>17</v>
+      <c r="E190">
+        <v>8167828256</v>
       </c>
       <c r="F190" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G190">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>313</v>
       </c>
       <c r="B191" t="s">
         <v>139</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>411</v>
+      <c r="C191" t="s">
+        <v>140</v>
       </c>
       <c r="D191" t="s">
         <v>412</v>
       </c>
-      <c r="E191" t="s">
-        <v>3</v>
+      <c r="E191">
+        <v>8167828256</v>
       </c>
       <c r="F191" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G191">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>389</v>
       </c>
       <c r="B192" t="s">
         <v>335</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>411</v>
+      <c r="C192" t="s">
+        <v>390</v>
       </c>
       <c r="D192" t="s">
         <v>412</v>
       </c>
-      <c r="E192" t="s">
-        <v>17</v>
+      <c r="E192">
+        <v>8167828256</v>
       </c>
       <c r="F192" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G192">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
       <c r="B193" t="s">
         <v>51</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>411</v>
+      <c r="C193" t="s">
+        <v>392</v>
       </c>
       <c r="D193" t="s">
         <v>412</v>
       </c>
-      <c r="E193" t="s">
-        <v>17</v>
+      <c r="E193">
+        <v>8167828256</v>
       </c>
       <c r="F193" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G193">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>393</v>
       </c>
       <c r="B194" t="s">
         <v>394</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>411</v>
+      <c r="C194" t="s">
+        <v>395</v>
       </c>
       <c r="D194" t="s">
         <v>412</v>
       </c>
-      <c r="E194" t="s">
-        <v>3</v>
+      <c r="E194">
+        <v>8167828256</v>
       </c>
       <c r="F194" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G194">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>396</v>
       </c>
       <c r="B195" t="s">
         <v>204</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>411</v>
+      <c r="C195" t="s">
+        <v>397</v>
       </c>
       <c r="D195" t="s">
         <v>412</v>
       </c>
-      <c r="E195" t="s">
-        <v>3</v>
+      <c r="E195">
+        <v>8167828256</v>
       </c>
       <c r="F195" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>171</v>
       </c>
       <c r="B196" t="s">
         <v>48</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>411</v>
+      <c r="C196" t="s">
+        <v>398</v>
       </c>
       <c r="D196" t="s">
         <v>412</v>
       </c>
-      <c r="E196" t="s">
-        <v>17</v>
+      <c r="E196">
+        <v>8167828256</v>
       </c>
       <c r="F196" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G196">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>248</v>
       </c>
       <c r="B197" t="s">
         <v>333</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>411</v>
+      <c r="C197" t="s">
+        <v>399</v>
       </c>
       <c r="D197" t="s">
         <v>412</v>
       </c>
-      <c r="E197" t="s">
-        <v>17</v>
+      <c r="E197">
+        <v>8167828256</v>
       </c>
       <c r="F197" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G197">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
       <c r="B198" t="s">
         <v>185</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>411</v>
+      <c r="C198" t="s">
+        <v>401</v>
       </c>
       <c r="D198" t="s">
         <v>412</v>
       </c>
-      <c r="E198" t="s">
-        <v>17</v>
+      <c r="E198">
+        <v>8167828256</v>
       </c>
       <c r="F198" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G198">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>411</v>
+      <c r="C199" t="s">
+        <v>402</v>
       </c>
       <c r="D199" t="s">
         <v>412</v>
       </c>
-      <c r="E199" t="s">
-        <v>3</v>
+      <c r="E199">
+        <v>8167828256</v>
       </c>
       <c r="F199" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200" t="s">
         <v>221</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>411</v>
+      <c r="C200" t="s">
+        <v>403</v>
       </c>
       <c r="D200" t="s">
         <v>412</v>
       </c>
-      <c r="E200" t="s">
-        <v>3</v>
+      <c r="E200">
+        <v>8167828256</v>
       </c>
       <c r="F200" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G200">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>404</v>
       </c>
       <c r="B201" t="s">
         <v>236</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>411</v>
+      <c r="C201" t="s">
+        <v>405</v>
       </c>
       <c r="D201" t="s">
         <v>412</v>
       </c>
-      <c r="E201" t="s">
-        <v>17</v>
+      <c r="E201">
+        <v>8167828256</v>
       </c>
       <c r="F201" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="G201">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
